--- a/Code/Results/Cases/Case_5_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.488500610711412</v>
+        <v>2.623200906877798</v>
       </c>
       <c r="C2">
-        <v>0.5984757238907719</v>
+        <v>0.4509523451977486</v>
       </c>
       <c r="D2">
-        <v>0.145130580596927</v>
+        <v>0.3834837759664254</v>
       </c>
       <c r="E2">
-        <v>0.3808899698321966</v>
+        <v>0.03945863753165368</v>
       </c>
       <c r="F2">
-        <v>6.539782565727137</v>
+        <v>6.667172538811855</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,36 +445,42 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3921627083399812</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.691418532326324</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1484422319292023</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4333943384616532</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.128299154891238</v>
+        <v>2.267500130350015</v>
       </c>
       <c r="C3">
-        <v>0.5096904936591784</v>
+        <v>0.3878666988925943</v>
       </c>
       <c r="D3">
-        <v>0.1292344251871</v>
+        <v>0.3473779293445034</v>
       </c>
       <c r="E3">
-        <v>0.3247109174233174</v>
+        <v>0.0379828548744654</v>
       </c>
       <c r="F3">
-        <v>5.726014814184254</v>
+        <v>5.911087940818931</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -480,36 +492,42 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3360868105143666</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5903002254589893</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1343824969787164</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3777018678811643</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.91345301075404</v>
+        <v>2.055756333689942</v>
       </c>
       <c r="C4">
-        <v>0.45682528245203</v>
+        <v>0.3500957157012579</v>
       </c>
       <c r="D4">
-        <v>0.1197612527680505</v>
+        <v>0.3257538103521256</v>
       </c>
       <c r="E4">
-        <v>0.2912999644803307</v>
+        <v>0.03709610308832856</v>
       </c>
       <c r="F4">
-        <v>5.240584854387521</v>
+        <v>5.458721391583424</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -521,36 +539,42 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.302698719031504</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5300117623193685</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1260442848330996</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3445751234940744</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.827245235823654</v>
+        <v>1.970924186607704</v>
       </c>
       <c r="C5">
-        <v>0.43562728440412</v>
+        <v>0.3349022153729777</v>
       </c>
       <c r="D5">
-        <v>0.1159598270047226</v>
+        <v>0.3170567020987107</v>
       </c>
       <c r="E5">
-        <v>0.2779127805949173</v>
+        <v>0.03673816282814246</v>
       </c>
       <c r="F5">
-        <v>5.045795771416891</v>
+        <v>5.276931303223364</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -562,36 +586,42 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.289313173786482</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5058245920734734</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.122712543053602</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3313109119043602</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.813005060818085</v>
+        <v>1.9569198148655</v>
       </c>
       <c r="C6">
-        <v>0.4321263402989928</v>
+        <v>0.3323901473296189</v>
       </c>
       <c r="D6">
-        <v>0.1153318079435977</v>
+        <v>0.3156188896681584</v>
       </c>
       <c r="E6">
-        <v>0.2757024330696467</v>
+        <v>0.03667889447014616</v>
       </c>
       <c r="F6">
-        <v>5.013619201239237</v>
+        <v>5.246887608468029</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -603,36 +633,42 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.287102699313408</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5018294141652291</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1221630892267811</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3291216945793991</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.912285243814267</v>
+        <v>2.054606637654103</v>
       </c>
       <c r="C7">
-        <v>0.4565380875824303</v>
+        <v>0.3498900614880824</v>
       </c>
       <c r="D7">
-        <v>0.119709762976683</v>
+        <v>0.3256360804838891</v>
       </c>
       <c r="E7">
-        <v>0.2911185513484611</v>
+        <v>0.03709126373130367</v>
       </c>
       <c r="F7">
-        <v>5.237946281608373</v>
+        <v>5.456259908431235</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -644,36 +680,42 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3025173561066907</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5296841114789714</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1259990938284403</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3443953270002567</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.362833949261983</v>
+        <v>2.499033544075871</v>
       </c>
       <c r="C8">
-        <v>0.5674753087349131</v>
+        <v>0.4289722453027593</v>
       </c>
       <c r="D8">
-        <v>0.1395814925422627</v>
+        <v>0.370907251071074</v>
       </c>
       <c r="E8">
-        <v>0.3612660297775463</v>
+        <v>0.03894482654991327</v>
       </c>
       <c r="F8">
-        <v>6.255889914809757</v>
+        <v>6.403734908822088</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -685,36 +727,42 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3725843931279158</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6561336904818731</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1435282703404894</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4139483832869857</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.309508464418684</v>
+        <v>3.434788042608602</v>
       </c>
       <c r="C9">
-        <v>0.8018342699240861</v>
+        <v>0.5940039652936093</v>
       </c>
       <c r="D9">
-        <v>0.1815281809841309</v>
+        <v>0.4651544354948527</v>
       </c>
       <c r="E9">
-        <v>0.5097877619302551</v>
+        <v>0.04281090762540041</v>
       </c>
       <c r="F9">
-        <v>8.393960080419504</v>
+        <v>8.378321144443674</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -726,36 +774,42 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5204843921853239</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9221678025586471</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1806485510310196</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5605635532159639</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.065533080151681</v>
+        <v>4.180246385048235</v>
       </c>
       <c r="C10">
-        <v>0.9906210736527612</v>
+        <v>0.7251557330392018</v>
       </c>
       <c r="D10">
-        <v>0.2153436611044128</v>
+        <v>0.5396088166207562</v>
       </c>
       <c r="E10">
-        <v>0.629630306876436</v>
+        <v>0.04592340193631372</v>
       </c>
       <c r="F10">
-        <v>10.10002293856334</v>
+        <v>9.936775987822671</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -767,36 +821,42 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6393246184592698</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.135071675114887</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2102612831219091</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6773785799291332</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.428984372000627</v>
+        <v>4.537200663589886</v>
       </c>
       <c r="C11">
-        <v>1.081974509203491</v>
+        <v>0.7880554357040523</v>
       </c>
       <c r="D11">
-        <v>0.2317204107291531</v>
+        <v>0.5751304227054845</v>
       </c>
       <c r="E11">
-        <v>0.6876648575886719</v>
+        <v>0.04743641211236005</v>
       </c>
       <c r="F11">
-        <v>10.9195269790352</v>
+        <v>10.67927788089656</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -808,36 +868,42 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6967002587338911</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.237587175852028</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2244241883577018</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.7332921825145533</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.570110049841048</v>
+        <v>4.675479130093095</v>
       </c>
       <c r="C12">
-        <v>1.117557775444681</v>
+        <v>0.812453583599563</v>
       </c>
       <c r="D12">
-        <v>0.2381017314275766</v>
+        <v>0.588872593293047</v>
       </c>
       <c r="E12">
-        <v>0.7102762801289799</v>
+        <v>0.04802739155753377</v>
       </c>
       <c r="F12">
-        <v>11.2375941506856</v>
+        <v>10.96631216844611</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -849,36 +915,42 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7190231013218735</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.277423924519368</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2299055491731679</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.7549464218475208</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.539547993228325</v>
+        <v>4.645550365568397</v>
       </c>
       <c r="C13">
-        <v>1.109846494736587</v>
+        <v>0.8071711647166353</v>
       </c>
       <c r="D13">
-        <v>0.2367187202273726</v>
+        <v>0.5858990696133048</v>
       </c>
       <c r="E13">
-        <v>0.7053758579388898</v>
+        <v>0.04789923652190353</v>
       </c>
       <c r="F13">
-        <v>11.16872089290831</v>
+        <v>10.90421459493058</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -890,36 +962,42 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7141867577000056</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.268795424656773</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2287194483802466</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.7502599190563117</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.440520317430469</v>
+        <v>4.54851114091116</v>
       </c>
       <c r="C14">
-        <v>1.084880791128626</v>
+        <v>0.7900503363604798</v>
       </c>
       <c r="D14">
-        <v>0.2322415596009932</v>
+        <v>0.5762548260183564</v>
       </c>
       <c r="E14">
-        <v>0.6895115317866924</v>
+        <v>0.04748464424851218</v>
       </c>
       <c r="F14">
-        <v>10.94552964046972</v>
+        <v>10.70276813951529</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -931,36 +1009,42 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6985240416343146</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.240842870355621</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2248726551435709</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.7350635219964943</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.380341221280446</v>
+        <v>4.489494450541429</v>
       </c>
       <c r="C15">
-        <v>1.069724325899671</v>
+        <v>0.7796425733413344</v>
       </c>
       <c r="D15">
-        <v>0.2295238283749796</v>
+        <v>0.57038709448247</v>
       </c>
       <c r="E15">
-        <v>0.6798812466582831</v>
+        <v>0.04723317981045883</v>
       </c>
       <c r="F15">
-        <v>10.80987668985313</v>
+        <v>10.58017446474611</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -972,36 +1056,42 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6890118166952632</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.223860293613086</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2225323875928495</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.7258206391398971</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.042228809600545</v>
+        <v>4.157321558791409</v>
       </c>
       <c r="C16">
-        <v>0.9847772890350939</v>
+        <v>0.7211194478933862</v>
       </c>
       <c r="D16">
-        <v>0.2142963636643742</v>
+        <v>0.537324970270447</v>
       </c>
       <c r="E16">
-        <v>0.6259187421617014</v>
+        <v>0.04582680506497638</v>
       </c>
       <c r="F16">
-        <v>10.04746029413045</v>
+        <v>9.889011386923841</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1013,36 +1103,42 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6356512517302306</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.128502229530497</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2093511464567541</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6737869735799933</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.84025098729586</v>
+        <v>3.958467542193034</v>
       </c>
       <c r="C17">
-        <v>0.934196567860198</v>
+        <v>0.6861206365134365</v>
       </c>
       <c r="D17">
-        <v>0.205233054522509</v>
+        <v>0.5175004159946468</v>
       </c>
       <c r="E17">
-        <v>0.5937980304203592</v>
+        <v>0.04499153750754337</v>
       </c>
       <c r="F17">
-        <v>9.591824002230766</v>
+        <v>9.474279201032061</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1054,36 +1150,42 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6038416691058188</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.071583452864232</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2014543458144686</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.642630075535088</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.72586809722884</v>
+        <v>3.845733350198486</v>
       </c>
       <c r="C18">
-        <v>0.9056044955177072</v>
+        <v>0.666287011975129</v>
       </c>
       <c r="D18">
-        <v>0.2001109945728814</v>
+        <v>0.5062496202734224</v>
       </c>
       <c r="E18">
-        <v>0.5756448490882207</v>
+        <v>0.04451996520421542</v>
       </c>
       <c r="F18">
-        <v>9.333733146014964</v>
+        <v>9.238821833345384</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1095,36 +1197,42 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5858490728544083</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.03936399906982</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.196976143768012</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.6249648018469784</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.687428921859521</v>
+        <v>3.80783055015911</v>
       </c>
       <c r="C19">
-        <v>0.8960042751101298</v>
+        <v>0.6596195593037919</v>
       </c>
       <c r="D19">
-        <v>0.1983913776312818</v>
+        <v>0.5024648941775638</v>
       </c>
       <c r="E19">
-        <v>0.5695503130337087</v>
+        <v>0.0443617093927835</v>
       </c>
       <c r="F19">
-        <v>9.246991097642422</v>
+        <v>9.159601393883889</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1136,36 +1244,42 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5798060091052974</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.028538721714384</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.19547034942957</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.619025248547004</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.861562200882872</v>
+        <v>3.979462421700703</v>
       </c>
       <c r="C20">
-        <v>0.9395278434097349</v>
+        <v>0.6898148550583869</v>
       </c>
       <c r="D20">
-        <v>0.2061882094092482</v>
+        <v>0.519594712155083</v>
       </c>
       <c r="E20">
-        <v>0.5971831912959331</v>
+        <v>0.04507951043089209</v>
       </c>
       <c r="F20">
-        <v>9.639905657350937</v>
+        <v>9.518101887681894</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1177,36 +1291,42 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6071956732420105</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.077587553460049</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2022882432290913</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.6459198079069211</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.469506024163366</v>
+        <v>4.576924710938783</v>
       </c>
       <c r="C21">
-        <v>1.092185098673184</v>
+        <v>0.7950623873588256</v>
       </c>
       <c r="D21">
-        <v>0.2335513926192476</v>
+        <v>0.5790792014904298</v>
       </c>
       <c r="E21">
-        <v>0.6941528455321873</v>
+        <v>0.04760589349441791</v>
       </c>
       <c r="F21">
-        <v>11.01086262698016</v>
+        <v>10.76176937336584</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1218,36 +1338,42 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7031072916730423</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.249023779182949</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2259991777956145</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7395132833292095</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.88764836592685</v>
+        <v>4.98585044624042</v>
       </c>
       <c r="C22">
-        <v>1.197857720874623</v>
+        <v>0.8672964142741364</v>
       </c>
       <c r="D22">
-        <v>0.2525068910131978</v>
+        <v>0.6196842729945331</v>
       </c>
       <c r="E22">
-        <v>0.7613147077089479</v>
+        <v>0.04936477122765881</v>
       </c>
       <c r="F22">
-        <v>11.95293854485789</v>
+        <v>11.60940320743225</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1259,36 +1385,42 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7693429647846699</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.36712325514695</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2421958705439806</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8035362175418825</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.662301243773641</v>
+        <v>4.765701917202989</v>
       </c>
       <c r="C23">
-        <v>1.140837308282585</v>
+        <v>0.8283839774304909</v>
       </c>
       <c r="D23">
-        <v>0.2422772544532137</v>
+        <v>0.5978339132932149</v>
       </c>
       <c r="E23">
-        <v>0.7250710511807625</v>
+        <v>0.04841456458277404</v>
       </c>
       <c r="F23">
-        <v>11.44532755849286</v>
+        <v>11.15341913791588</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1300,36 +1432,42 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7336192221889988</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.303457038860728</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2334801766416632</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.76907321335338</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.851922040853538</v>
+        <v>3.969965724802535</v>
       </c>
       <c r="C24">
-        <v>0.9371160700167422</v>
+        <v>0.6881438111278726</v>
       </c>
       <c r="D24">
-        <v>0.2057561107117749</v>
+        <v>0.5186474281103983</v>
       </c>
       <c r="E24">
-        <v>0.5956517930636807</v>
+        <v>0.04503971127347839</v>
       </c>
       <c r="F24">
-        <v>9.618156024645572</v>
+        <v>9.498280452035686</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1341,36 +1479,42 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6056784172292566</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.07487154458326</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2019110471597116</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.6444317557793084</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.044619959648003</v>
+        <v>3.173006480149809</v>
       </c>
       <c r="C25">
-        <v>0.7360516922837519</v>
+        <v>0.5479364778057629</v>
       </c>
       <c r="D25">
-        <v>0.169752743782098</v>
+        <v>0.4388963552603116</v>
       </c>
       <c r="E25">
-        <v>0.4680647877302349</v>
+        <v>0.04172820583220194</v>
       </c>
       <c r="F25">
-        <v>7.795860576886923</v>
+        <v>7.828220969566814</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4790023745717065</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8476723306347225</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1702498609431089</v>
       </c>
       <c r="M25">
+        <v>0.5195375884758491</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_17/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.623200906877798</v>
+        <v>0.8491577000569066</v>
       </c>
       <c r="C2">
-        <v>0.4509523451977486</v>
+        <v>0.1064624986047562</v>
       </c>
       <c r="D2">
-        <v>0.3834837759664254</v>
+        <v>0.1309827186465782</v>
       </c>
       <c r="E2">
-        <v>0.03945863753165368</v>
+        <v>0.09916234305932292</v>
       </c>
       <c r="F2">
-        <v>6.667172538811855</v>
+        <v>0.9142894626320412</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1064703413010619</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8610059644737191</v>
       </c>
       <c r="L2">
-        <v>0.1484422319292023</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4333943384616532</v>
+        <v>0.3060814921577659</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.251084965200135</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.267500130350015</v>
+        <v>0.7374771449858315</v>
       </c>
       <c r="C3">
-        <v>0.3878666988925943</v>
+        <v>0.09578042122028307</v>
       </c>
       <c r="D3">
-        <v>0.3473779293445034</v>
+        <v>0.1165763643675035</v>
       </c>
       <c r="E3">
-        <v>0.0379828548744654</v>
+        <v>0.09147267655585267</v>
       </c>
       <c r="F3">
-        <v>5.911087940818931</v>
+        <v>0.8921348156890829</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1014837519117151</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7493738348170353</v>
       </c>
       <c r="L3">
-        <v>0.1343824969787164</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3777018678811643</v>
+        <v>0.2670804994962523</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.231648563441354</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.055756333689942</v>
+        <v>0.6690917088972128</v>
       </c>
       <c r="C4">
-        <v>0.3500957157012579</v>
+        <v>0.08921286975616738</v>
       </c>
       <c r="D4">
-        <v>0.3257538103521256</v>
+        <v>0.1078114225814772</v>
       </c>
       <c r="E4">
-        <v>0.03709610308832856</v>
+        <v>0.08685835383309382</v>
       </c>
       <c r="F4">
-        <v>5.458721391583424</v>
+        <v>0.8800693081137467</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.09857566564731712</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6809309922008566</v>
       </c>
       <c r="L4">
-        <v>0.1260442848330996</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3445751234940744</v>
+        <v>0.2432773944165412</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.223837094502613</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.970924186607704</v>
+        <v>0.641259856707677</v>
       </c>
       <c r="C5">
-        <v>0.3349022153729777</v>
+        <v>0.0865335439369801</v>
       </c>
       <c r="D5">
-        <v>0.3170567020987107</v>
+        <v>0.1042583021691144</v>
       </c>
       <c r="E5">
-        <v>0.03673816282814246</v>
+        <v>0.08500343119869314</v>
       </c>
       <c r="F5">
-        <v>5.276931303223364</v>
+        <v>0.8755228981811314</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.09742741205134564</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6530545434369657</v>
       </c>
       <c r="L5">
-        <v>0.122712543053602</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3313109119043602</v>
+        <v>0.2336090018865917</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.221648775190104</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.9569198148655</v>
+        <v>0.6366402431731046</v>
       </c>
       <c r="C6">
-        <v>0.3323901473296189</v>
+        <v>0.08608844054953835</v>
       </c>
       <c r="D6">
-        <v>0.3156188896681584</v>
+        <v>0.1036693911273545</v>
       </c>
       <c r="E6">
-        <v>0.03667889447014616</v>
+        <v>0.08469691757454711</v>
       </c>
       <c r="F6">
-        <v>5.246887608468029</v>
+        <v>0.8747898804963938</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.09723891705233711</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6484262644370204</v>
       </c>
       <c r="L6">
-        <v>0.1221630892267811</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3291216945793991</v>
+        <v>0.232005350627265</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.221344315521861</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.054606637654103</v>
+        <v>0.6687162283577663</v>
       </c>
       <c r="C7">
-        <v>0.3498900614880824</v>
+        <v>0.08917674858348335</v>
       </c>
       <c r="D7">
-        <v>0.3256360804838891</v>
+        <v>0.1077634304489123</v>
       </c>
       <c r="E7">
-        <v>0.03709126373130367</v>
+        <v>0.0868332365694755</v>
       </c>
       <c r="F7">
-        <v>5.456259908431235</v>
+        <v>0.8800065148631262</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.09856003319220719</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6805549951437939</v>
       </c>
       <c r="L7">
-        <v>0.1259990938284403</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3443953270002567</v>
+        <v>0.243146881130432</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.223803607331035</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.499033544075871</v>
+        <v>0.8106044743180121</v>
       </c>
       <c r="C8">
-        <v>0.4289722453027593</v>
+        <v>0.1027806224736736</v>
       </c>
       <c r="D8">
-        <v>0.370907251071074</v>
+        <v>0.125997677576521</v>
       </c>
       <c r="E8">
-        <v>0.03894482654991327</v>
+        <v>0.09648777859259994</v>
       </c>
       <c r="F8">
-        <v>6.403734908822088</v>
+        <v>0.9063213920407946</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1047179312534396</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8224879546299917</v>
       </c>
       <c r="L8">
-        <v>0.1435282703404894</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4139483832869857</v>
+        <v>0.2926013005039394</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.243501883680409</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.434788042608602</v>
+        <v>1.090880978461371</v>
       </c>
       <c r="C9">
-        <v>0.5940039652936093</v>
+        <v>0.1294289698851543</v>
       </c>
       <c r="D9">
-        <v>0.4651544354948527</v>
+        <v>0.1624731218153386</v>
       </c>
       <c r="E9">
-        <v>0.04281090762540041</v>
+        <v>0.116342769994386</v>
       </c>
       <c r="F9">
-        <v>8.378321144443674</v>
+        <v>0.9709011541343102</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.118101086406007</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.102127788478214</v>
       </c>
       <c r="L9">
-        <v>0.1806485510310196</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5605635532159639</v>
+        <v>0.3909439293608727</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.316833360911659</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.180246385048235</v>
+        <v>1.29887545623663</v>
       </c>
       <c r="C10">
-        <v>0.7251557330392018</v>
+        <v>0.1490521882268041</v>
       </c>
       <c r="D10">
-        <v>0.5396088166207562</v>
+        <v>0.1898275884541221</v>
       </c>
       <c r="E10">
-        <v>0.04592340193631372</v>
+        <v>0.1316001782700518</v>
       </c>
       <c r="F10">
-        <v>9.936775987822671</v>
+        <v>1.02740797800854</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1288614075406969</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.309165692426177</v>
       </c>
       <c r="L10">
-        <v>0.2102612831219091</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6773785799291332</v>
+        <v>0.4643629522938966</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.394811049648808</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.537200663589886</v>
+        <v>1.394148778494838</v>
       </c>
       <c r="C11">
-        <v>0.7880554357040523</v>
+        <v>0.1580041787692181</v>
       </c>
       <c r="D11">
-        <v>0.5751304227054845</v>
+        <v>0.2024207427940325</v>
       </c>
       <c r="E11">
-        <v>0.04743641211236005</v>
+        <v>0.1387122390211992</v>
       </c>
       <c r="F11">
-        <v>10.67927788089656</v>
+        <v>1.055355400702226</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1339891142050149</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.403886892025611</v>
       </c>
       <c r="L11">
-        <v>0.2244241883577018</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7332921825145533</v>
+        <v>0.4980969978161056</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.436220511873955</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.675479130093095</v>
+        <v>1.430338211223244</v>
       </c>
       <c r="C12">
-        <v>0.812453583599563</v>
+        <v>0.1613990412553932</v>
       </c>
       <c r="D12">
-        <v>0.588872593293047</v>
+        <v>0.2072134006788815</v>
       </c>
       <c r="E12">
-        <v>0.04802739155753377</v>
+        <v>0.1414322984302423</v>
       </c>
       <c r="F12">
-        <v>10.96631216844611</v>
+        <v>1.066285275893037</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1359670903552939</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.439849491001894</v>
       </c>
       <c r="L12">
-        <v>0.2299055491731679</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7549464218475208</v>
+        <v>0.5109265153260623</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.452817994927386</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.645550365568397</v>
+        <v>1.422538922608368</v>
       </c>
       <c r="C13">
-        <v>0.8071711647166353</v>
+        <v>0.1606676553693944</v>
       </c>
       <c r="D13">
-        <v>0.5858990696133048</v>
+        <v>0.206180112734998</v>
       </c>
       <c r="E13">
-        <v>0.04789923652190353</v>
+        <v>0.1408452524309709</v>
       </c>
       <c r="F13">
-        <v>10.90421459493058</v>
+        <v>1.063915501163606</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1355394407614909</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.432099860214663</v>
       </c>
       <c r="L13">
-        <v>0.2287194483802466</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7502599190563117</v>
+        <v>0.5081608795853612</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.449201612718213</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.54851114091116</v>
+        <v>1.397123767168551</v>
       </c>
       <c r="C14">
-        <v>0.7900503363604798</v>
+        <v>0.1582833693428256</v>
       </c>
       <c r="D14">
-        <v>0.5762548260183564</v>
+        <v>0.2028145441684472</v>
       </c>
       <c r="E14">
-        <v>0.04748464424851218</v>
+        <v>0.1389354679664194</v>
       </c>
       <c r="F14">
-        <v>10.70276813951529</v>
+        <v>1.056247512031561</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1341511010293033</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.406843580343718</v>
       </c>
       <c r="L14">
-        <v>0.2248726551435709</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7350635219964943</v>
+        <v>0.4991513427287799</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.437567249880487</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.489494450541429</v>
+        <v>1.38157130341736</v>
       </c>
       <c r="C15">
-        <v>0.7796425733413344</v>
+        <v>0.156823608850857</v>
       </c>
       <c r="D15">
-        <v>0.57038709448247</v>
+        <v>0.2007562236181712</v>
       </c>
       <c r="E15">
-        <v>0.04723317981045883</v>
+        <v>0.1377692388108898</v>
       </c>
       <c r="F15">
-        <v>10.58017446474611</v>
+        <v>1.051596563045806</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1333055054234507</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.391386091459651</v>
       </c>
       <c r="L15">
-        <v>0.2225323875928495</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7258206391398971</v>
+        <v>0.4936401403462369</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.430562181755192</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.157321558791409</v>
+        <v>1.292663755726807</v>
       </c>
       <c r="C16">
-        <v>0.7211194478933862</v>
+        <v>0.1484677722787637</v>
       </c>
       <c r="D16">
-        <v>0.537324970270447</v>
+        <v>0.1890078061272504</v>
       </c>
       <c r="E16">
-        <v>0.04582680506497638</v>
+        <v>0.131139024338303</v>
       </c>
       <c r="F16">
-        <v>9.889011386923841</v>
+        <v>1.025628710570558</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1285312147706605</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.302987641581325</v>
       </c>
       <c r="L16">
-        <v>0.2093511464567541</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6737869735799933</v>
+        <v>0.4621656833249119</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.392229584671725</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.958467542193034</v>
+        <v>1.238301621430651</v>
       </c>
       <c r="C17">
-        <v>0.6861206365134365</v>
+        <v>0.1433491068311952</v>
       </c>
       <c r="D17">
-        <v>0.5175004159946468</v>
+        <v>0.1818404778567668</v>
       </c>
       <c r="E17">
-        <v>0.04499153750754337</v>
+        <v>0.1271170383561184</v>
       </c>
       <c r="F17">
-        <v>9.474279201032061</v>
+        <v>1.010289351966151</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1256638599707927</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.248907210059997</v>
       </c>
       <c r="L17">
-        <v>0.2014543458144686</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.642630075535088</v>
+        <v>0.4429477989791124</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.37027772626007</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.845733350198486</v>
+        <v>1.20709456206805</v>
       </c>
       <c r="C18">
-        <v>0.666287011975129</v>
+        <v>0.1404072821134719</v>
       </c>
       <c r="D18">
-        <v>0.5062496202734224</v>
+        <v>0.1777319350587447</v>
       </c>
       <c r="E18">
-        <v>0.04451996520421542</v>
+        <v>0.1248196878807413</v>
       </c>
       <c r="F18">
-        <v>9.238821833345384</v>
+        <v>1.001676045460755</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1240363680202989</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.217851227210502</v>
       </c>
       <c r="L18">
-        <v>0.196976143768012</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6249648018469784</v>
+        <v>0.4319253013119351</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.358206394647254</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.80783055015911</v>
+        <v>1.196538292469711</v>
       </c>
       <c r="C19">
-        <v>0.6596195593037919</v>
+        <v>0.1394115872908372</v>
       </c>
       <c r="D19">
-        <v>0.5024648941775638</v>
+        <v>0.1763431722314692</v>
       </c>
       <c r="E19">
-        <v>0.0443617093927835</v>
+        <v>0.1240445252236633</v>
       </c>
       <c r="F19">
-        <v>9.159601393883889</v>
+        <v>0.9987949928441964</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.123488979489224</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.207344256431981</v>
       </c>
       <c r="L19">
-        <v>0.19547034942957</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.619025248547004</v>
+        <v>0.4281984147655749</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.354212692972823</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.979462421700703</v>
+        <v>1.244082170623528</v>
       </c>
       <c r="C20">
-        <v>0.6898148550583869</v>
+        <v>0.1438937507673899</v>
       </c>
       <c r="D20">
-        <v>0.519594712155083</v>
+        <v>0.1826019951274702</v>
       </c>
       <c r="E20">
-        <v>0.04507951043089209</v>
+        <v>0.1275435151118884</v>
       </c>
       <c r="F20">
-        <v>9.518101887681894</v>
+        <v>1.011900400754072</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1259668260179865</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.254658911593054</v>
       </c>
       <c r="L20">
-        <v>0.2022882432290913</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6459198079069211</v>
+        <v>0.444990305985705</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.372556678561068</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.576924710938783</v>
+        <v>1.404585644831428</v>
       </c>
       <c r="C21">
-        <v>0.7950623873588256</v>
+        <v>0.1589835470169021</v>
       </c>
       <c r="D21">
-        <v>0.5790792014904298</v>
+        <v>0.203802424450231</v>
       </c>
       <c r="E21">
-        <v>0.04760589349441791</v>
+        <v>0.1394956699824768</v>
       </c>
       <c r="F21">
-        <v>10.76176937336584</v>
+        <v>1.058490171528817</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1345578840209853</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.414259281997204</v>
       </c>
       <c r="L21">
-        <v>0.2259991777956145</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7395132833292095</v>
+        <v>0.5017961070152523</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.440959143592551</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.98585044624042</v>
+        <v>1.510142750541775</v>
       </c>
       <c r="C22">
-        <v>0.8672964142741364</v>
+        <v>0.1688750671706032</v>
       </c>
       <c r="D22">
-        <v>0.6196842729945331</v>
+        <v>0.2177987019578751</v>
       </c>
       <c r="E22">
-        <v>0.04936477122765881</v>
+        <v>0.1474649004011752</v>
       </c>
       <c r="F22">
-        <v>11.60940320743225</v>
+        <v>1.090973251040452</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1403852054840229</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.519122189961735</v>
       </c>
       <c r="L22">
-        <v>0.2421958705439806</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8035362175418825</v>
+        <v>0.5392471330533439</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.491039410983234</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.765701917202989</v>
+        <v>1.453738623799325</v>
       </c>
       <c r="C23">
-        <v>0.8283839774304909</v>
+        <v>0.1635926217290375</v>
       </c>
       <c r="D23">
-        <v>0.5978339132932149</v>
+        <v>0.2103149217568898</v>
       </c>
       <c r="E23">
-        <v>0.04841456458277404</v>
+        <v>0.1431963542266494</v>
       </c>
       <c r="F23">
-        <v>11.15341913791588</v>
+        <v>1.07344179485564</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1372546429439936</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.463098403566335</v>
       </c>
       <c r="L23">
-        <v>0.2334801766416632</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.76907321335338</v>
+        <v>0.5192266346083159</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.463796797442825</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.969965724802535</v>
+        <v>1.241468640920374</v>
       </c>
       <c r="C24">
-        <v>0.6881438111278726</v>
+        <v>0.1436475143374452</v>
       </c>
       <c r="D24">
-        <v>0.5186474281103983</v>
+        <v>0.1822576758172829</v>
       </c>
       <c r="E24">
-        <v>0.04503971127347839</v>
+        <v>0.1273506585938335</v>
       </c>
       <c r="F24">
-        <v>9.498280452035686</v>
+        <v>1.011171407347661</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1258297898991714</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.252058457729731</v>
       </c>
       <c r="L24">
-        <v>0.2019110471597116</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6444317557793084</v>
+        <v>0.4440668077286247</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.37152465865185</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.173006480149809</v>
+        <v>1.014758181488759</v>
       </c>
       <c r="C25">
-        <v>0.5479364778057629</v>
+        <v>0.122216835000259</v>
       </c>
       <c r="D25">
-        <v>0.4388963552603116</v>
+        <v>0.1525169184564277</v>
       </c>
       <c r="E25">
-        <v>0.04172820583220194</v>
+        <v>0.1108620130311557</v>
       </c>
       <c r="F25">
-        <v>7.828220969566814</v>
+        <v>0.9519272197860289</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1143276302004566</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.026259537965444</v>
       </c>
       <c r="L25">
-        <v>0.1702498609431089</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5195375884758491</v>
+        <v>0.3641604232539848</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.292987615649167</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_17/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8491577000569066</v>
+        <v>0.3605800351898267</v>
       </c>
       <c r="C2">
-        <v>0.1064624986047562</v>
+        <v>0.03088557933001823</v>
       </c>
       <c r="D2">
-        <v>0.1309827186465782</v>
+        <v>0.1582768291400214</v>
       </c>
       <c r="E2">
-        <v>0.09916234305932292</v>
+        <v>0.1566086668041855</v>
       </c>
       <c r="F2">
-        <v>0.9142894626320412</v>
+        <v>1.732319223695441</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1064703413010619</v>
+        <v>0.1935279873022253</v>
       </c>
       <c r="K2">
-        <v>0.8610059644737191</v>
+        <v>0.3142421109736802</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3060814921577659</v>
+        <v>0.2122778647614609</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.251084965200135</v>
+        <v>4.396756074374395</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7374771449858315</v>
+        <v>0.3283216481628415</v>
       </c>
       <c r="C3">
-        <v>0.09578042122028307</v>
+        <v>0.02738043923127975</v>
       </c>
       <c r="D3">
-        <v>0.1165763643675035</v>
+        <v>0.1550313151750942</v>
       </c>
       <c r="E3">
-        <v>0.09147267655585267</v>
+        <v>0.1554378733550017</v>
       </c>
       <c r="F3">
-        <v>0.8921348156890829</v>
+        <v>1.737500715248807</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1014837519117151</v>
+        <v>0.1934081094815738</v>
       </c>
       <c r="K3">
-        <v>0.7493738348170353</v>
+        <v>0.2810876666783031</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2670804994962523</v>
+        <v>0.2020710694219403</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.231648563441354</v>
+        <v>4.419837966818903</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6690917088972128</v>
+        <v>0.3085938214299802</v>
       </c>
       <c r="C4">
-        <v>0.08921286975616738</v>
+        <v>0.02521660268801895</v>
       </c>
       <c r="D4">
-        <v>0.1078114225814772</v>
+        <v>0.1530991578749621</v>
       </c>
       <c r="E4">
-        <v>0.08685835383309382</v>
+        <v>0.1547863530560392</v>
       </c>
       <c r="F4">
-        <v>0.8800693081137467</v>
+        <v>1.741507268733137</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09857566564731712</v>
+        <v>0.1934220207013269</v>
       </c>
       <c r="K4">
-        <v>0.6809309922008566</v>
+        <v>0.26075683036089</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2432773944165412</v>
+        <v>0.1958871293921334</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.223837094502613</v>
+        <v>4.43613697541997</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.641259856707677</v>
+        <v>0.3005748792314478</v>
       </c>
       <c r="C5">
-        <v>0.0865335439369801</v>
+        <v>0.02433193968309411</v>
       </c>
       <c r="D5">
-        <v>0.1042583021691144</v>
+        <v>0.1523271114385096</v>
       </c>
       <c r="E5">
-        <v>0.08500343119869314</v>
+        <v>0.1545378302330747</v>
       </c>
       <c r="F5">
-        <v>0.8755228981811314</v>
+        <v>1.743347577505148</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09742741205134564</v>
+        <v>0.193449718883663</v>
       </c>
       <c r="K5">
-        <v>0.6530545434369657</v>
+        <v>0.2524788782477003</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2336090018865917</v>
+        <v>0.1933881755924247</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.221648775190104</v>
+        <v>4.443313832954075</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6366402431731046</v>
+        <v>0.2992445799039274</v>
       </c>
       <c r="C6">
-        <v>0.08608844054953835</v>
+        <v>0.02418486951992804</v>
       </c>
       <c r="D6">
-        <v>0.1036693911273545</v>
+        <v>0.1521998417017301</v>
       </c>
       <c r="E6">
-        <v>0.08469691757454711</v>
+        <v>0.1544975897796519</v>
       </c>
       <c r="F6">
-        <v>0.8747898804963938</v>
+        <v>1.743665702032885</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09723891705233711</v>
+        <v>0.193455649320633</v>
       </c>
       <c r="K6">
-        <v>0.6484262644370204</v>
+        <v>0.2511047686838026</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.232005350627265</v>
+        <v>0.1929745024975418</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.221344315521861</v>
+        <v>4.444537853625192</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6687162283577663</v>
+        <v>0.3084855923441694</v>
       </c>
       <c r="C7">
-        <v>0.08917674858348335</v>
+        <v>0.02520468341344895</v>
       </c>
       <c r="D7">
-        <v>0.1077634304489123</v>
+        <v>0.153088683629079</v>
       </c>
       <c r="E7">
-        <v>0.0868332365694755</v>
+        <v>0.1547829325966248</v>
       </c>
       <c r="F7">
-        <v>0.8800065148631262</v>
+        <v>1.741531247024781</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09856003319220719</v>
+        <v>0.1934223050231623</v>
       </c>
       <c r="K7">
-        <v>0.6805549951437939</v>
+        <v>0.2606451619339509</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.243146881130432</v>
+        <v>0.1958533421725548</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.223803607331035</v>
+        <v>4.436231599172203</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8106044743180121</v>
+        <v>0.3494412181356097</v>
       </c>
       <c r="C8">
-        <v>0.1027806224736736</v>
+        <v>0.02967945817371742</v>
       </c>
       <c r="D8">
-        <v>0.125997677576521</v>
+        <v>0.1571452475175477</v>
       </c>
       <c r="E8">
-        <v>0.09648777859259994</v>
+        <v>0.1561910222056397</v>
       </c>
       <c r="F8">
-        <v>0.9063213920407946</v>
+        <v>1.733934627502101</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1047179312534396</v>
+        <v>0.1934685023262261</v>
       </c>
       <c r="K8">
-        <v>0.8224879546299917</v>
+        <v>0.3028053005196512</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2926013005039394</v>
+        <v>0.2087414135881644</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.243501883680409</v>
+        <v>4.404273395979715</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.090880978461371</v>
+        <v>0.4303657638029961</v>
       </c>
       <c r="C9">
-        <v>0.1294289698851543</v>
+        <v>0.03836005946548937</v>
       </c>
       <c r="D9">
-        <v>0.1624731218153386</v>
+        <v>0.1655778204648755</v>
       </c>
       <c r="E9">
-        <v>0.116342769994386</v>
+        <v>0.1594851904313579</v>
       </c>
       <c r="F9">
-        <v>0.9709011541343102</v>
+        <v>1.725580150082749</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.118101086406007</v>
+        <v>0.1942527371953773</v>
       </c>
       <c r="K9">
-        <v>1.102127788478214</v>
+        <v>0.385672512603719</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3909439293608727</v>
+        <v>0.2346683482246448</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.316833360911659</v>
+        <v>4.358474400888497</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.29887545623663</v>
+        <v>0.4901782723370616</v>
       </c>
       <c r="C10">
-        <v>0.1490521882268041</v>
+        <v>0.04467825869863873</v>
       </c>
       <c r="D10">
-        <v>0.1898275884541221</v>
+        <v>0.1720609437847287</v>
       </c>
       <c r="E10">
-        <v>0.1316001782700518</v>
+        <v>0.1622287232871464</v>
       </c>
       <c r="F10">
-        <v>1.02740797800854</v>
+        <v>1.723426786165774</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1288614075406969</v>
+        <v>0.1952510818985118</v>
       </c>
       <c r="K10">
-        <v>1.309165692426177</v>
+        <v>0.446656336400423</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4643629522938966</v>
+        <v>0.2541097358512729</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.394811049648808</v>
+        <v>4.335110384855483</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.394148778494838</v>
+        <v>0.5174633051149158</v>
       </c>
       <c r="C11">
-        <v>0.1580041787692181</v>
+        <v>0.04753930817601315</v>
       </c>
       <c r="D11">
-        <v>0.2024207427940325</v>
+        <v>0.1750720700495947</v>
       </c>
       <c r="E11">
-        <v>0.1387122390211992</v>
+        <v>0.1635467263091535</v>
       </c>
       <c r="F11">
-        <v>1.055355400702226</v>
+        <v>1.723311738136658</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1339891142050149</v>
+        <v>0.1957967994372325</v>
       </c>
       <c r="K11">
-        <v>1.403886892025611</v>
+        <v>0.4744185936270071</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4980969978161056</v>
+        <v>0.263038403190734</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.436220511873955</v>
+        <v>4.326714858245566</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.430338211223244</v>
+        <v>0.5278059967522495</v>
       </c>
       <c r="C12">
-        <v>0.1613990412553932</v>
+        <v>0.04862078184997642</v>
       </c>
       <c r="D12">
-        <v>0.2072134006788815</v>
+        <v>0.1762211348655995</v>
       </c>
       <c r="E12">
-        <v>0.1414322984302423</v>
+        <v>0.1640558447367759</v>
       </c>
       <c r="F12">
-        <v>1.066285275893037</v>
+        <v>1.723392402451481</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1359670903552939</v>
+        <v>0.1960165987543476</v>
       </c>
       <c r="K12">
-        <v>1.439849491001894</v>
+        <v>0.4849339962834449</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5109265153260623</v>
+        <v>0.2664315005847584</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.452817994927386</v>
+        <v>4.323856747531408</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.422538922608368</v>
+        <v>0.5255780564370127</v>
       </c>
       <c r="C13">
-        <v>0.1606676553693944</v>
+        <v>0.04838795446893585</v>
       </c>
       <c r="D13">
-        <v>0.206180112734998</v>
+        <v>0.1759732724673739</v>
       </c>
       <c r="E13">
-        <v>0.1408452524309709</v>
+        <v>0.1639457520059402</v>
       </c>
       <c r="F13">
-        <v>1.063915501163606</v>
+        <v>1.723369506162157</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1355394407614909</v>
+        <v>0.1959686765853448</v>
       </c>
       <c r="K13">
-        <v>1.432099860214663</v>
+        <v>0.4826692156169372</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5081608795853612</v>
+        <v>0.2657002051737507</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.449201612718213</v>
+        <v>4.324458012003362</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.397123767168551</v>
+        <v>0.5183139981113811</v>
       </c>
       <c r="C14">
-        <v>0.1582833693428256</v>
+        <v>0.04762832093601332</v>
       </c>
       <c r="D14">
-        <v>0.2028145441684472</v>
+        <v>0.1751664281053706</v>
       </c>
       <c r="E14">
-        <v>0.1389354679664194</v>
+        <v>0.1635884112181394</v>
       </c>
       <c r="F14">
-        <v>1.056247512031561</v>
+        <v>1.723315885177428</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1341511010293033</v>
+        <v>0.1958146190646701</v>
       </c>
       <c r="K14">
-        <v>1.406843580343718</v>
+        <v>0.4752836561013964</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4991513427287799</v>
+        <v>0.2633173157468462</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.437567249880487</v>
+        <v>4.326473284535524</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.38157130341736</v>
+        <v>0.5138658979627166</v>
       </c>
       <c r="C15">
-        <v>0.156823608850857</v>
+        <v>0.04716276870186675</v>
       </c>
       <c r="D15">
-        <v>0.2007562236181712</v>
+        <v>0.17467335823018</v>
       </c>
       <c r="E15">
-        <v>0.1377692388108898</v>
+        <v>0.1633708332775363</v>
       </c>
       <c r="F15">
-        <v>1.051596563045806</v>
+        <v>1.723299216647789</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1333055054234507</v>
+        <v>0.1957219660661167</v>
       </c>
       <c r="K15">
-        <v>1.391386091459651</v>
+        <v>0.470760090485328</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4936401403462369</v>
+        <v>0.2618592854425614</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.430562181755192</v>
+        <v>4.327749513144909</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.292663755726807</v>
+        <v>0.4883966191225966</v>
       </c>
       <c r="C16">
-        <v>0.1484677722787637</v>
+        <v>0.04449101340861716</v>
       </c>
       <c r="D16">
-        <v>0.1890078061272504</v>
+        <v>0.1718653981264708</v>
       </c>
       <c r="E16">
-        <v>0.131139024338303</v>
+        <v>0.1621439929404858</v>
       </c>
       <c r="F16">
-        <v>1.025628710570558</v>
+        <v>1.723451693864021</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1285312147706605</v>
+        <v>0.1952172588763403</v>
       </c>
       <c r="K16">
-        <v>1.302987641581325</v>
+        <v>0.4448423758111915</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4621656833249119</v>
+        <v>0.2535279157281494</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.392229584671725</v>
+        <v>4.335703984193259</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.238301621430651</v>
+        <v>0.4727911635946214</v>
       </c>
       <c r="C17">
-        <v>0.1433491068311952</v>
+        <v>0.0428485753289749</v>
       </c>
       <c r="D17">
-        <v>0.1818404778567668</v>
+        <v>0.1701586026832587</v>
       </c>
       <c r="E17">
-        <v>0.1271170383561184</v>
+        <v>0.1614092548985369</v>
       </c>
       <c r="F17">
-        <v>1.010289351966151</v>
+        <v>1.723766597907826</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1256638599707927</v>
+        <v>0.1949310759262204</v>
       </c>
       <c r="K17">
-        <v>1.248907210059997</v>
+        <v>0.4289475709117312</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4429477989791124</v>
+        <v>0.2484384567399971</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.37027772626007</v>
+        <v>4.341155694520097</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.20709456206805</v>
+        <v>0.4638225031433478</v>
       </c>
       <c r="C18">
-        <v>0.1404072821134719</v>
+        <v>0.04190265572017893</v>
       </c>
       <c r="D18">
-        <v>0.1777319350587447</v>
+        <v>0.1691827326036446</v>
       </c>
       <c r="E18">
-        <v>0.1248196878807413</v>
+        <v>0.1609932400281231</v>
       </c>
       <c r="F18">
-        <v>1.001676045460755</v>
+        <v>1.724029101111853</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1240363680202989</v>
+        <v>0.1947750907873598</v>
       </c>
       <c r="K18">
-        <v>1.217851227210502</v>
+        <v>0.4198072501792183</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4319253013119351</v>
+        <v>0.2455191155556591</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.358206394647254</v>
+        <v>4.344501543058755</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.196538292469711</v>
+        <v>0.4607871177724974</v>
       </c>
       <c r="C19">
-        <v>0.1394115872908372</v>
+        <v>0.04158217357743865</v>
       </c>
       <c r="D19">
-        <v>0.1763431722314692</v>
+        <v>0.1688533243429049</v>
       </c>
       <c r="E19">
-        <v>0.1240445252236633</v>
+        <v>0.1608535170959513</v>
       </c>
       <c r="F19">
-        <v>0.9987949928441964</v>
+        <v>1.724131959725099</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.123488979489224</v>
+        <v>0.1947237579262193</v>
       </c>
       <c r="K19">
-        <v>1.207344256431981</v>
+        <v>0.4167128448162885</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4281984147655749</v>
+        <v>0.2445320527966572</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.354212692972823</v>
+        <v>4.345670486379447</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.244082170623528</v>
+        <v>0.4744516509289838</v>
       </c>
       <c r="C20">
-        <v>0.1438937507673899</v>
+        <v>0.04302354364648409</v>
       </c>
       <c r="D20">
-        <v>0.1826019951274702</v>
+        <v>0.1703396908594499</v>
       </c>
       <c r="E20">
-        <v>0.1275435151118884</v>
+        <v>0.161486787578017</v>
       </c>
       <c r="F20">
-        <v>1.011900400754072</v>
+        <v>1.723724654072825</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1259668260179865</v>
+        <v>0.1949606486189666</v>
       </c>
       <c r="K20">
-        <v>1.254658911593054</v>
+        <v>0.4306394017466459</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.444990305985705</v>
+        <v>0.2489794135828944</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.372556678561068</v>
+        <v>4.340553598888562</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.404585644831428</v>
+        <v>0.5204473486347752</v>
       </c>
       <c r="C21">
-        <v>0.1589835470169021</v>
+        <v>0.04785149690881951</v>
       </c>
       <c r="D21">
-        <v>0.203802424450231</v>
+        <v>0.1754031792677893</v>
       </c>
       <c r="E21">
-        <v>0.1394956699824768</v>
+        <v>0.1636930992705992</v>
       </c>
       <c r="F21">
-        <v>1.058490171528817</v>
+        <v>1.72332826408045</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1345578840209853</v>
+        <v>0.195859512813918</v>
       </c>
       <c r="K21">
-        <v>1.414259281997204</v>
+        <v>0.4774529117315467</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5017961070152523</v>
+        <v>0.2640169036979572</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.440959143592551</v>
+        <v>4.325872635714461</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.510142750541775</v>
+        <v>0.5505688328310896</v>
       </c>
       <c r="C22">
-        <v>0.1688750671706032</v>
+        <v>0.05099548880559723</v>
       </c>
       <c r="D22">
-        <v>0.2177987019578751</v>
+        <v>0.1787638113205361</v>
       </c>
       <c r="E22">
-        <v>0.1474649004011752</v>
+        <v>0.1651934328514457</v>
       </c>
       <c r="F22">
-        <v>1.090973251040452</v>
+        <v>1.723793269801362</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1403852054840229</v>
+        <v>0.1965235998339949</v>
       </c>
       <c r="K22">
-        <v>1.519122189961735</v>
+        <v>0.5080622301992435</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5392471330533439</v>
+        <v>0.2739146664318355</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.491039410983234</v>
+        <v>4.318149356316781</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.453738623799325</v>
+        <v>0.5344870431331117</v>
       </c>
       <c r="C23">
-        <v>0.1635926217290375</v>
+        <v>0.04931853833156197</v>
       </c>
       <c r="D23">
-        <v>0.2103149217568898</v>
+        <v>0.1769655091253668</v>
       </c>
       <c r="E23">
-        <v>0.1431963542266494</v>
+        <v>0.1643873480144364</v>
       </c>
       <c r="F23">
-        <v>1.07344179485564</v>
+        <v>1.723478864147708</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1372546429439936</v>
+        <v>0.1961621590051337</v>
       </c>
       <c r="K23">
-        <v>1.463098403566335</v>
+        <v>0.4917243449738464</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5192266346083159</v>
+        <v>0.2686257057968575</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.463796797442825</v>
+        <v>4.322100164057531</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.241468640920374</v>
+        <v>0.4737009348388028</v>
       </c>
       <c r="C24">
-        <v>0.1436475143374452</v>
+        <v>0.04294444563628019</v>
       </c>
       <c r="D24">
-        <v>0.1822576758172829</v>
+        <v>0.1702578041017659</v>
       </c>
       <c r="E24">
-        <v>0.1273506585938335</v>
+        <v>0.1614517151286634</v>
       </c>
       <c r="F24">
-        <v>1.011171407347661</v>
+        <v>1.723743363127298</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1258297898991714</v>
+        <v>0.1949472521857984</v>
       </c>
       <c r="K24">
-        <v>1.252058457729731</v>
+        <v>0.4298745317984753</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4440668077286247</v>
+        <v>0.2487348262474569</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.37152465865185</v>
+        <v>4.340825147233147</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.014758181488759</v>
+        <v>0.4084097131299131</v>
       </c>
       <c r="C25">
-        <v>0.122216835000259</v>
+        <v>0.03602203066499499</v>
       </c>
       <c r="D25">
-        <v>0.1525169184564277</v>
+        <v>0.1632458097352583</v>
       </c>
       <c r="E25">
-        <v>0.1108620130311557</v>
+        <v>0.1585371411837073</v>
       </c>
       <c r="F25">
-        <v>0.9519272197860289</v>
+        <v>1.727140232460336</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1143276302004566</v>
+        <v>0.1939663935490472</v>
       </c>
       <c r="K25">
-        <v>1.026259537965444</v>
+        <v>0.3632358490208389</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3641604232539848</v>
+        <v>0.2275850375963984</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.292987615649167</v>
+        <v>4.369058140513516</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_17/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3605800351898267</v>
+        <v>0.8491577000569066</v>
       </c>
       <c r="C2">
-        <v>0.03088557933001823</v>
+        <v>0.1064624986041025</v>
       </c>
       <c r="D2">
-        <v>0.1582768291400214</v>
+        <v>0.1309827186464076</v>
       </c>
       <c r="E2">
-        <v>0.1566086668041855</v>
+        <v>0.09916234305934069</v>
       </c>
       <c r="F2">
-        <v>1.732319223695441</v>
+        <v>0.9142894626320768</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1935279873022253</v>
+        <v>0.1064703413011117</v>
       </c>
       <c r="K2">
-        <v>0.3142421109736802</v>
+        <v>0.8610059644735486</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2122778647614609</v>
+        <v>0.3060814921577659</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.396756074374395</v>
+        <v>2.251084965200022</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3283216481628415</v>
+        <v>0.7374771449858031</v>
       </c>
       <c r="C3">
-        <v>0.02738043923127975</v>
+        <v>0.09578042122060992</v>
       </c>
       <c r="D3">
-        <v>0.1550313151750942</v>
+        <v>0.1165763643675319</v>
       </c>
       <c r="E3">
-        <v>0.1554378733550017</v>
+        <v>0.09147267655588465</v>
       </c>
       <c r="F3">
-        <v>1.737500715248807</v>
+        <v>0.8921348156890687</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1934081094815738</v>
+        <v>0.1014837519115659</v>
       </c>
       <c r="K3">
-        <v>0.2810876666783031</v>
+        <v>0.7493738348168932</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2020710694219403</v>
+        <v>0.2670804994962594</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.419837966818903</v>
+        <v>2.231648563441297</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3085938214299802</v>
+        <v>0.6690917088972128</v>
       </c>
       <c r="C4">
-        <v>0.02521660268801895</v>
+        <v>0.0892128697565937</v>
       </c>
       <c r="D4">
-        <v>0.1530991578749621</v>
+        <v>0.1078114225813636</v>
       </c>
       <c r="E4">
-        <v>0.1547863530560392</v>
+        <v>0.08685835383311513</v>
       </c>
       <c r="F4">
-        <v>1.741507268733137</v>
+        <v>0.8800693081137538</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1934220207013269</v>
+        <v>0.09857566564723896</v>
       </c>
       <c r="K4">
-        <v>0.26075683036089</v>
+        <v>0.6809309922009135</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1958871293921334</v>
+        <v>0.2432773944165483</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.43613697541997</v>
+        <v>2.223837094502585</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3005748792314478</v>
+        <v>0.6412598567076486</v>
       </c>
       <c r="C5">
-        <v>0.02433193968309411</v>
+        <v>0.08653354393706536</v>
       </c>
       <c r="D5">
-        <v>0.1523271114385096</v>
+        <v>0.1042583021690007</v>
       </c>
       <c r="E5">
-        <v>0.1545378302330747</v>
+        <v>0.08500343119868248</v>
       </c>
       <c r="F5">
-        <v>1.743347577505148</v>
+        <v>0.8755228981811172</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.193449718883663</v>
+        <v>0.0974274120514238</v>
       </c>
       <c r="K5">
-        <v>0.2524788782477003</v>
+        <v>0.6530545434369799</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1933881755924247</v>
+        <v>0.2336090018866024</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.443313832954075</v>
+        <v>2.221648775190062</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2992445799039274</v>
+        <v>0.6366402431730762</v>
       </c>
       <c r="C6">
-        <v>0.02418486951992804</v>
+        <v>0.08608844054936782</v>
       </c>
       <c r="D6">
-        <v>0.1521998417017301</v>
+        <v>0.103669391127184</v>
       </c>
       <c r="E6">
-        <v>0.1544975897796519</v>
+        <v>0.0846969175745258</v>
       </c>
       <c r="F6">
-        <v>1.743665702032885</v>
+        <v>0.874789880496408</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.193455649320633</v>
+        <v>0.09723891705224474</v>
       </c>
       <c r="K6">
-        <v>0.2511047686838026</v>
+        <v>0.6484262644370631</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1929745024975418</v>
+        <v>0.2320053506272934</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.444537853625192</v>
+        <v>2.221344315521947</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3084855923441694</v>
+        <v>0.66871622835788</v>
       </c>
       <c r="C7">
-        <v>0.02520468341344895</v>
+        <v>0.08917674858317071</v>
       </c>
       <c r="D7">
-        <v>0.153088683629079</v>
+        <v>0.1077634304489692</v>
       </c>
       <c r="E7">
-        <v>0.1547829325966248</v>
+        <v>0.0868332365694755</v>
       </c>
       <c r="F7">
-        <v>1.741531247024781</v>
+        <v>0.880006514863112</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1934223050231623</v>
+        <v>0.09856003319241324</v>
       </c>
       <c r="K7">
-        <v>0.2606451619339509</v>
+        <v>0.6805549951438223</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1958533421725548</v>
+        <v>0.243146881130432</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.436231599172203</v>
+        <v>2.223803607331007</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3494412181356097</v>
+        <v>0.8106044743179837</v>
       </c>
       <c r="C8">
-        <v>0.02967945817371742</v>
+        <v>0.1027806224736594</v>
       </c>
       <c r="D8">
-        <v>0.1571452475175477</v>
+        <v>0.1259976775764926</v>
       </c>
       <c r="E8">
-        <v>0.1561910222056397</v>
+        <v>0.09648777859260704</v>
       </c>
       <c r="F8">
-        <v>1.733934627502101</v>
+        <v>0.9063213920407946</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1934685023262261</v>
+        <v>0.1047179312532975</v>
       </c>
       <c r="K8">
-        <v>0.3028053005196512</v>
+        <v>0.8224879546300201</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2087414135881644</v>
+        <v>0.2926013005039394</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.404273395979715</v>
+        <v>2.243501883680324</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4303657638029961</v>
+        <v>1.090880978461257</v>
       </c>
       <c r="C9">
-        <v>0.03836005946548937</v>
+        <v>0.1294289698851685</v>
       </c>
       <c r="D9">
-        <v>0.1655778204648755</v>
+        <v>0.1624731218152249</v>
       </c>
       <c r="E9">
-        <v>0.1594851904313579</v>
+        <v>0.1163427699943895</v>
       </c>
       <c r="F9">
-        <v>1.725580150082749</v>
+        <v>0.9709011541343102</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1942527371953773</v>
+        <v>0.1181010864059573</v>
       </c>
       <c r="K9">
-        <v>0.385672512603719</v>
+        <v>1.1021277884781</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2346683482246448</v>
+        <v>0.3909439293608727</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.358474400888497</v>
+        <v>2.316833360911659</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4901782723370616</v>
+        <v>1.298875456236544</v>
       </c>
       <c r="C10">
-        <v>0.04467825869863873</v>
+        <v>0.1490521882268041</v>
       </c>
       <c r="D10">
-        <v>0.1720609437847287</v>
+        <v>0.1898275884542926</v>
       </c>
       <c r="E10">
-        <v>0.1622287232871464</v>
+        <v>0.1316001782700766</v>
       </c>
       <c r="F10">
-        <v>1.723426786165774</v>
+        <v>1.027407978008512</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1952510818985118</v>
+        <v>0.1288614075408177</v>
       </c>
       <c r="K10">
-        <v>0.446656336400423</v>
+        <v>1.309165692426205</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2541097358512729</v>
+        <v>0.4643629522939037</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.335110384855483</v>
+        <v>2.394811049648837</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5174633051149158</v>
+        <v>1.394148778494838</v>
       </c>
       <c r="C11">
-        <v>0.04753930817601315</v>
+        <v>0.1580041787695734</v>
       </c>
       <c r="D11">
-        <v>0.1750720700495947</v>
+        <v>0.2024207427939473</v>
       </c>
       <c r="E11">
-        <v>0.1635467263091535</v>
+        <v>0.1387122390212063</v>
       </c>
       <c r="F11">
-        <v>1.723311738136658</v>
+        <v>1.055355400702226</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1957967994372325</v>
+        <v>0.133989114205022</v>
       </c>
       <c r="K11">
-        <v>0.4744185936270071</v>
+        <v>1.403886892025554</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.263038403190734</v>
+        <v>0.4980969978161056</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.326714858245566</v>
+        <v>2.436220511873955</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5278059967522495</v>
+        <v>1.430338211223386</v>
       </c>
       <c r="C12">
-        <v>0.04862078184997642</v>
+        <v>0.1613990412558479</v>
       </c>
       <c r="D12">
-        <v>0.1762211348655995</v>
+        <v>0.2072134006788104</v>
       </c>
       <c r="E12">
-        <v>0.1640558447367759</v>
+        <v>0.1414322984302459</v>
       </c>
       <c r="F12">
-        <v>1.723392402451481</v>
+        <v>1.066285275893023</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1960165987543476</v>
+        <v>0.1359670903553294</v>
       </c>
       <c r="K12">
-        <v>0.4849339962834449</v>
+        <v>1.439849491001894</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.2664315005847584</v>
+        <v>0.5109265153260623</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.323856747531408</v>
+        <v>2.452817994927386</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5255780564370127</v>
+        <v>1.422538922608339</v>
       </c>
       <c r="C13">
-        <v>0.04838795446893585</v>
+        <v>0.1606676553696076</v>
       </c>
       <c r="D13">
-        <v>0.1759732724673739</v>
+        <v>0.2061801127350549</v>
       </c>
       <c r="E13">
-        <v>0.1639457520059402</v>
+        <v>0.1408452524309887</v>
       </c>
       <c r="F13">
-        <v>1.723369506162157</v>
+        <v>1.063915501163592</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1959686765853448</v>
+        <v>0.1355394407615549</v>
       </c>
       <c r="K13">
-        <v>0.4826692156169372</v>
+        <v>1.432099860214663</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.2657002051737507</v>
+        <v>0.5081608795853754</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.324458012003362</v>
+        <v>2.449201612718184</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5183139981113811</v>
+        <v>1.397123767168665</v>
       </c>
       <c r="C14">
-        <v>0.04762832093601332</v>
+        <v>0.1582833693432946</v>
       </c>
       <c r="D14">
-        <v>0.1751664281053706</v>
+        <v>0.2028145441683904</v>
       </c>
       <c r="E14">
-        <v>0.1635884112181394</v>
+        <v>0.1389354679664088</v>
       </c>
       <c r="F14">
-        <v>1.723315885177428</v>
+        <v>1.056247512031561</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1958146190646701</v>
+        <v>0.1341511010292464</v>
       </c>
       <c r="K14">
-        <v>0.4752836561013964</v>
+        <v>1.406843580343718</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.2633173157468462</v>
+        <v>0.499151342728787</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.326473284535524</v>
+        <v>2.437567249880459</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5138658979627166</v>
+        <v>1.38157130341736</v>
       </c>
       <c r="C15">
-        <v>0.04716276870186675</v>
+        <v>0.1568236088506296</v>
       </c>
       <c r="D15">
-        <v>0.17467335823018</v>
+        <v>0.2007562236182849</v>
       </c>
       <c r="E15">
-        <v>0.1633708332775363</v>
+        <v>0.1377692388108898</v>
       </c>
       <c r="F15">
-        <v>1.723299216647789</v>
+        <v>1.05159656304582</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1957219660661167</v>
+        <v>0.1333055054233299</v>
       </c>
       <c r="K15">
-        <v>0.470760090485328</v>
+        <v>1.391386091459594</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.2618592854425614</v>
+        <v>0.4936401403462298</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.327749513144909</v>
+        <v>2.430562181755135</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4883966191225966</v>
+        <v>1.292663755726863</v>
       </c>
       <c r="C16">
-        <v>0.04449101340861716</v>
+        <v>0.1484677722789058</v>
       </c>
       <c r="D16">
-        <v>0.1718653981264708</v>
+        <v>0.1890078061273215</v>
       </c>
       <c r="E16">
-        <v>0.1621439929404858</v>
+        <v>0.1311390243382888</v>
       </c>
       <c r="F16">
-        <v>1.723451693864021</v>
+        <v>1.025628710570544</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1952172588763403</v>
+        <v>0.1285312147706676</v>
       </c>
       <c r="K16">
-        <v>0.4448423758111915</v>
+        <v>1.302987641581268</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2535279157281494</v>
+        <v>0.462165683324919</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.335703984193259</v>
+        <v>2.392229584671696</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4727911635946214</v>
+        <v>1.238301621430679</v>
       </c>
       <c r="C17">
-        <v>0.0428485753289749</v>
+        <v>0.1433491068308257</v>
       </c>
       <c r="D17">
-        <v>0.1701586026832587</v>
+        <v>0.1818404778567668</v>
       </c>
       <c r="E17">
-        <v>0.1614092548985369</v>
+        <v>0.1271170383561184</v>
       </c>
       <c r="F17">
-        <v>1.723766597907826</v>
+        <v>1.010289351966108</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1949310759262204</v>
+        <v>0.1256638599709561</v>
       </c>
       <c r="K17">
-        <v>0.4289475709117312</v>
+        <v>1.248907210059912</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2484384567399971</v>
+        <v>0.4429477989791195</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.341155694520097</v>
+        <v>2.370277726259985</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4638225031433478</v>
+        <v>1.207094562068022</v>
       </c>
       <c r="C18">
-        <v>0.04190265572017893</v>
+        <v>0.1404072821131308</v>
       </c>
       <c r="D18">
-        <v>0.1691827326036446</v>
+        <v>0.1777319350585032</v>
       </c>
       <c r="E18">
-        <v>0.1609932400281231</v>
+        <v>0.1248196878807555</v>
       </c>
       <c r="F18">
-        <v>1.724029101111853</v>
+        <v>1.001676045460769</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1947750907873598</v>
+        <v>0.1240363680203487</v>
       </c>
       <c r="K18">
-        <v>0.4198072501792183</v>
+        <v>1.217851227210531</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2455191155556591</v>
+        <v>0.431925301311928</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.344501543058755</v>
+        <v>2.358206394647283</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4607871177724974</v>
+        <v>1.196538292469683</v>
       </c>
       <c r="C19">
-        <v>0.04158217357743865</v>
+        <v>0.1394115872908372</v>
       </c>
       <c r="D19">
-        <v>0.1688533243429049</v>
+        <v>0.1763431722313982</v>
       </c>
       <c r="E19">
-        <v>0.1608535170959513</v>
+        <v>0.1240445252236633</v>
       </c>
       <c r="F19">
-        <v>1.724131959725099</v>
+        <v>0.9987949928441964</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1947237579262193</v>
+        <v>0.1234889794892808</v>
       </c>
       <c r="K19">
-        <v>0.4167128448162885</v>
+        <v>1.207344256431981</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2445320527966572</v>
+        <v>0.4281984147655749</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.345670486379447</v>
+        <v>2.354212692972794</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4744516509289838</v>
+        <v>1.244082170623727</v>
       </c>
       <c r="C20">
-        <v>0.04302354364648409</v>
+        <v>0.1438937507676172</v>
       </c>
       <c r="D20">
-        <v>0.1703396908594499</v>
+        <v>0.1826019951272997</v>
       </c>
       <c r="E20">
-        <v>0.161486787578017</v>
+        <v>0.1275435151118742</v>
       </c>
       <c r="F20">
-        <v>1.723724654072825</v>
+        <v>1.011900400754058</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1949606486189666</v>
+        <v>0.1259668260179296</v>
       </c>
       <c r="K20">
-        <v>0.4306394017466459</v>
+        <v>1.254658911593083</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2489794135828944</v>
+        <v>0.444990305985705</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.340553598888562</v>
+        <v>2.372556678561068</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5204473486347752</v>
+        <v>1.404585644831542</v>
       </c>
       <c r="C21">
-        <v>0.04785149690881951</v>
+        <v>0.1589835470175984</v>
       </c>
       <c r="D21">
-        <v>0.1754031792677893</v>
+        <v>0.203802424450231</v>
       </c>
       <c r="E21">
-        <v>0.1636930992705992</v>
+        <v>0.1394956699824732</v>
       </c>
       <c r="F21">
-        <v>1.72332826408045</v>
+        <v>1.058490171528803</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.195859512813918</v>
+        <v>0.1345578840209924</v>
       </c>
       <c r="K21">
-        <v>0.4774529117315467</v>
+        <v>1.414259281997147</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.2640169036979572</v>
+        <v>0.501796107015231</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.325872635714461</v>
+        <v>2.440959143592494</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5505688328310896</v>
+        <v>1.510142750541746</v>
       </c>
       <c r="C22">
-        <v>0.05099548880559723</v>
+        <v>0.1688750671706174</v>
       </c>
       <c r="D22">
-        <v>0.1787638113205361</v>
+        <v>0.217798701957733</v>
       </c>
       <c r="E22">
-        <v>0.1651934328514457</v>
+        <v>0.147464900401161</v>
       </c>
       <c r="F22">
-        <v>1.723793269801362</v>
+        <v>1.090973251040438</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1965235998339949</v>
+        <v>0.1403852054838524</v>
       </c>
       <c r="K22">
-        <v>0.5080622301992435</v>
+        <v>1.519122189961706</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.2739146664318355</v>
+        <v>0.5392471330533226</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.318149356316781</v>
+        <v>2.491039410983234</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5344870431331117</v>
+        <v>1.453738623799325</v>
       </c>
       <c r="C23">
-        <v>0.04931853833156197</v>
+        <v>0.1635926217285828</v>
       </c>
       <c r="D23">
-        <v>0.1769655091253668</v>
+        <v>0.2103149217568472</v>
       </c>
       <c r="E23">
-        <v>0.1643873480144364</v>
+        <v>0.1431963542266317</v>
       </c>
       <c r="F23">
-        <v>1.723478864147708</v>
+        <v>1.073441794855611</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1961621590051337</v>
+        <v>0.1372546429439438</v>
       </c>
       <c r="K23">
-        <v>0.4917243449738464</v>
+        <v>1.463098403566448</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.2686257057968575</v>
+        <v>0.5192266346083372</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.322100164057531</v>
+        <v>2.463796797442853</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4737009348388028</v>
+        <v>1.241468640920402</v>
       </c>
       <c r="C24">
-        <v>0.04294444563628019</v>
+        <v>0.1436475143377152</v>
       </c>
       <c r="D24">
-        <v>0.1702578041017659</v>
+        <v>0.1822576758174108</v>
       </c>
       <c r="E24">
-        <v>0.1614517151286634</v>
+        <v>0.127350658593766</v>
       </c>
       <c r="F24">
-        <v>1.723743363127298</v>
+        <v>1.011171407347675</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1949472521857984</v>
+        <v>0.1258297898991856</v>
       </c>
       <c r="K24">
-        <v>0.4298745317984753</v>
+        <v>1.252058457729731</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2487348262474569</v>
+        <v>0.4440668077285963</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.340825147233147</v>
+        <v>2.371524658651822</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4084097131299131</v>
+        <v>1.014758181488759</v>
       </c>
       <c r="C25">
-        <v>0.03602203066499499</v>
+        <v>0.1222168350004864</v>
       </c>
       <c r="D25">
-        <v>0.1632458097352583</v>
+        <v>0.152516918456385</v>
       </c>
       <c r="E25">
-        <v>0.1585371411837073</v>
+        <v>0.1108620130311451</v>
       </c>
       <c r="F25">
-        <v>1.727140232460336</v>
+        <v>0.9519272197859863</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1939663935490472</v>
+        <v>0.1143276302005205</v>
       </c>
       <c r="K25">
-        <v>0.3632358490208389</v>
+        <v>1.026259537965501</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2275850375963984</v>
+        <v>0.3641604232539848</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.369058140513516</v>
+        <v>2.292987615649167</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8491577000569066</v>
+        <v>2.593027982814874</v>
       </c>
       <c r="C2">
-        <v>0.1064624986041025</v>
+        <v>0.8019061299573025</v>
       </c>
       <c r="D2">
-        <v>0.1309827186464076</v>
+        <v>0.08267088034563486</v>
       </c>
       <c r="E2">
-        <v>0.09916234305934069</v>
+        <v>0.0410280546109556</v>
       </c>
       <c r="F2">
-        <v>0.9142894626320768</v>
+        <v>2.609726796147811</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.005360080642507481</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.005186424454514338</v>
       </c>
       <c r="J2">
-        <v>0.1064703413011117</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K2">
-        <v>0.8610059644735486</v>
+        <v>1.630973226698501</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3060814921577659</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1862086577766533</v>
       </c>
       <c r="O2">
-        <v>2.251084965200022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4505404824143966</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7374771449858031</v>
+        <v>2.2561763745843</v>
       </c>
       <c r="C3">
-        <v>0.09578042122060992</v>
+        <v>0.6933687113094607</v>
       </c>
       <c r="D3">
-        <v>0.1165763643675319</v>
+        <v>0.07930503640134035</v>
       </c>
       <c r="E3">
-        <v>0.09147267655588465</v>
+        <v>0.03597906089255964</v>
       </c>
       <c r="F3">
-        <v>0.8921348156890687</v>
+        <v>2.352180669708588</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.008619748280234735</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.008833279715910525</v>
       </c>
       <c r="J3">
-        <v>0.1014837519115659</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0.7493738348168932</v>
+        <v>1.499222297247613</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2670804994962594</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1637605955238612</v>
       </c>
       <c r="O3">
-        <v>2.231648563441297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3929549422681049</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6690917088972128</v>
+        <v>2.050008251733232</v>
       </c>
       <c r="C4">
-        <v>0.0892128697565937</v>
+        <v>0.6276722718923224</v>
       </c>
       <c r="D4">
-        <v>0.1078114225813636</v>
+        <v>0.07713967076362849</v>
       </c>
       <c r="E4">
-        <v>0.08685835383311513</v>
+        <v>0.03296435362483052</v>
       </c>
       <c r="F4">
-        <v>0.8800693081137538</v>
+        <v>2.194524506580379</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01107738875110875</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01170329005619619</v>
       </c>
       <c r="J4">
-        <v>0.09857566564723896</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0.6809309922009135</v>
+        <v>1.418029490276552</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2432773944165483</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.150053603377529</v>
       </c>
       <c r="O4">
-        <v>2.223837094502585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3577069991611381</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6412598567076486</v>
+        <v>1.966088379367477</v>
       </c>
       <c r="C5">
-        <v>0.08653354393706536</v>
+        <v>0.60176487672544</v>
       </c>
       <c r="D5">
-        <v>0.1042583021690007</v>
+        <v>0.07602674694373235</v>
       </c>
       <c r="E5">
-        <v>0.08500343119868248</v>
+        <v>0.03175162182540348</v>
       </c>
       <c r="F5">
-        <v>0.8755228981811172</v>
+        <v>2.125960138643066</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01219617840911519</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01311525688287674</v>
       </c>
       <c r="J5">
-        <v>0.0974274120514238</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0.6530545434369799</v>
+        <v>1.381408800347728</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2336090018866024</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1445094088368606</v>
       </c>
       <c r="O5">
-        <v>2.221648775190062</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3433871654503236</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6366402431730762</v>
+        <v>1.952119058519827</v>
       </c>
       <c r="C6">
-        <v>0.08608844054936782</v>
+        <v>0.598280010655202</v>
       </c>
       <c r="D6">
-        <v>0.103669391127184</v>
+        <v>0.07559009712491616</v>
       </c>
       <c r="E6">
-        <v>0.0846969175745258</v>
+        <v>0.03154907259339534</v>
       </c>
       <c r="F6">
-        <v>0.874789880496408</v>
+        <v>2.109210822068931</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01239917559176235</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01347926949082368</v>
       </c>
       <c r="J6">
-        <v>0.09723891705224474</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0.6484262644370631</v>
+        <v>1.371121713123785</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2320053506272934</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1436223328071762</v>
       </c>
       <c r="O6">
-        <v>2.221344315521947</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3410382162255416</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.66871622835788</v>
+        <v>2.048754536827346</v>
       </c>
       <c r="C7">
-        <v>0.08917674858317071</v>
+        <v>0.629524797899137</v>
       </c>
       <c r="D7">
-        <v>0.1077634304489692</v>
+        <v>0.07643864346197304</v>
       </c>
       <c r="E7">
-        <v>0.0868332365694755</v>
+        <v>0.03294154331722332</v>
       </c>
       <c r="F7">
-        <v>0.880006514863112</v>
+        <v>2.178899539822623</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01111959291962349</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01203091739847828</v>
       </c>
       <c r="J7">
-        <v>0.09856003319241324</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0.6805549951438223</v>
+        <v>1.406032639781614</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.243146881130432</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1500683181821429</v>
       </c>
       <c r="O7">
-        <v>2.223803607331007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3575888685688398</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8106044743179837</v>
+        <v>2.476519656053824</v>
       </c>
       <c r="C8">
-        <v>0.1027806224736594</v>
+        <v>0.7671976545809969</v>
       </c>
       <c r="D8">
-        <v>0.1259976775764926</v>
+        <v>0.080618016289705</v>
       </c>
       <c r="E8">
-        <v>0.09648777859260704</v>
+        <v>0.03925600046090505</v>
       </c>
       <c r="F8">
-        <v>0.9063213920407946</v>
+        <v>2.501196152131598</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.006412280856728736</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.006662904590363006</v>
       </c>
       <c r="J8">
-        <v>0.1047179312532975</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0.8224879546300201</v>
+        <v>1.570264965829878</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2926013005039394</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1785687144720001</v>
       </c>
       <c r="O8">
-        <v>2.243501883680324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4307543137393282</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.090880978461257</v>
+        <v>3.322744614341048</v>
       </c>
       <c r="C9">
-        <v>0.1294289698851685</v>
+        <v>1.042205308664677</v>
       </c>
       <c r="D9">
-        <v>0.1624731218152249</v>
+        <v>0.08927045852339432</v>
       </c>
       <c r="E9">
-        <v>0.1163427699943895</v>
+        <v>0.05252114347470105</v>
       </c>
       <c r="F9">
-        <v>0.9709011541343102</v>
+        <v>3.165888198611242</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001073778397750136</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001139322389030362</v>
       </c>
       <c r="J9">
-        <v>0.1181010864059573</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>1.1021277884781</v>
+        <v>1.911754847372194</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3909439293608727</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.23511330491705</v>
       </c>
       <c r="O9">
-        <v>2.316833360911659</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5752863210157884</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.298875456236544</v>
+        <v>3.956570566382652</v>
       </c>
       <c r="C10">
-        <v>0.1490521882268041</v>
+        <v>1.259437874409457</v>
       </c>
       <c r="D10">
-        <v>0.1898275884542926</v>
+        <v>0.09145491961380259</v>
       </c>
       <c r="E10">
-        <v>0.1316001782700766</v>
+        <v>0.0640285114749668</v>
       </c>
       <c r="F10">
-        <v>1.027407978008512</v>
+        <v>3.579911398434064</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0001885675814374821</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001157242804920244</v>
       </c>
       <c r="J10">
-        <v>0.1288614075408177</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>1.309165692426205</v>
+        <v>2.101500747126323</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4643629522939037</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2645632092432066</v>
       </c>
       <c r="O10">
-        <v>2.394811049648837</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6751130169794024</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.394148778494838</v>
+        <v>4.291892578773457</v>
       </c>
       <c r="C11">
-        <v>0.1580041787695734</v>
+        <v>1.421771899407361</v>
       </c>
       <c r="D11">
-        <v>0.2024207427939473</v>
+        <v>0.06727723718237755</v>
       </c>
       <c r="E11">
-        <v>0.1387122390212063</v>
+        <v>0.08399823749288515</v>
       </c>
       <c r="F11">
-        <v>1.055355400702226</v>
+        <v>3.125771674881378</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01875422125114667</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002084198402178217</v>
       </c>
       <c r="J11">
-        <v>0.133989114205022</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>1.403886892025554</v>
+        <v>1.710800401173216</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4980969978161056</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1782867443446108</v>
       </c>
       <c r="O11">
-        <v>2.436220511873955</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6552367074249332</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.430338211223386</v>
+        <v>4.443156895502966</v>
       </c>
       <c r="C12">
-        <v>0.1613990412558479</v>
+        <v>1.512384672109818</v>
       </c>
       <c r="D12">
-        <v>0.2072134006788104</v>
+        <v>0.05387810103143842</v>
       </c>
       <c r="E12">
-        <v>0.1414322984302459</v>
+        <v>0.1067508709206315</v>
       </c>
       <c r="F12">
-        <v>1.066285275893023</v>
+        <v>2.705101803889477</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05741919377877025</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002147491241174748</v>
       </c>
       <c r="J12">
-        <v>0.1359670903553294</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>1.439849491001894</v>
+        <v>1.392955865590039</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5109265153260623</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1161307224180916</v>
       </c>
       <c r="O12">
-        <v>2.452817994927386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.6174700206736574</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.422538922608339</v>
+        <v>4.459485659477878</v>
       </c>
       <c r="C13">
-        <v>0.1606676553696076</v>
+        <v>1.555249885374167</v>
       </c>
       <c r="D13">
-        <v>0.2061801127350549</v>
+        <v>0.04685901167018214</v>
       </c>
       <c r="E13">
-        <v>0.1408452524309887</v>
+        <v>0.132503629941958</v>
       </c>
       <c r="F13">
-        <v>1.063915501163592</v>
+        <v>2.264146054154097</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1131796058147074</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001837553982144691</v>
       </c>
       <c r="J13">
-        <v>0.1355394407615549</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>1.432099860214663</v>
+        <v>1.095761784792884</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5081608795853754</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06940755299319079</v>
       </c>
       <c r="O13">
-        <v>2.449201612718184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5642200948572764</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.397123767168665</v>
+        <v>4.409863763219789</v>
       </c>
       <c r="C14">
-        <v>0.1582833693432946</v>
+        <v>1.564558338068707</v>
       </c>
       <c r="D14">
-        <v>0.2028145441683904</v>
+        <v>0.04561808215581742</v>
       </c>
       <c r="E14">
-        <v>0.1389354679664088</v>
+        <v>0.152778898414013</v>
       </c>
       <c r="F14">
-        <v>1.056247512031561</v>
+        <v>1.949437458437345</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1625932260297702</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001617332807694716</v>
       </c>
       <c r="J14">
-        <v>0.1341511010292464</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>1.406843580343718</v>
+        <v>0.9010003503174246</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.499151342728787</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04626805826307745</v>
       </c>
       <c r="O14">
-        <v>2.437567249880459</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5204438919400189</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.38157130341736</v>
+        <v>4.368575858932331</v>
       </c>
       <c r="C15">
-        <v>0.1568236088506296</v>
+        <v>1.557142500520683</v>
       </c>
       <c r="D15">
-        <v>0.2007562236182849</v>
+        <v>0.04586056748725298</v>
       </c>
       <c r="E15">
-        <v>0.1377692388108898</v>
+        <v>0.157253945520079</v>
       </c>
       <c r="F15">
-        <v>1.05159656304582</v>
+        <v>1.861631128795125</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1751519085758702</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001641434582779766</v>
       </c>
       <c r="J15">
-        <v>0.1333055054233299</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>1.391386091459594</v>
+        <v>0.8514034325920576</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4936401403462298</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04177287146758957</v>
       </c>
       <c r="O15">
-        <v>2.430562181755135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5065956571251391</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.292663755726863</v>
+        <v>4.08939358949516</v>
       </c>
       <c r="C16">
-        <v>0.1484677722789058</v>
+        <v>1.453195919602365</v>
       </c>
       <c r="D16">
-        <v>0.1890078061273215</v>
+        <v>0.0463908920176479</v>
       </c>
       <c r="E16">
-        <v>0.1311390243382888</v>
+        <v>0.146082759760926</v>
       </c>
       <c r="F16">
-        <v>1.025628710570544</v>
+        <v>1.776436346660233</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1628137627298258</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.00159861366051306</v>
       </c>
       <c r="J16">
-        <v>0.1285312147706676</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>1.302987641581268</v>
+        <v>0.8328839519595093</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.462165683324919</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04051972269831694</v>
       </c>
       <c r="O16">
-        <v>2.392229584671696</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4761619825928491</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.238301621430679</v>
+        <v>3.902436359431078</v>
       </c>
       <c r="C17">
-        <v>0.1433491068308257</v>
+        <v>1.369087123020392</v>
       </c>
       <c r="D17">
-        <v>0.1818404778567668</v>
+        <v>0.04680846223048896</v>
       </c>
       <c r="E17">
-        <v>0.1271170383561184</v>
+        <v>0.1262267189378292</v>
       </c>
       <c r="F17">
-        <v>1.010289351966108</v>
+        <v>1.873268607138868</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1253629348266827</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001786710227706934</v>
       </c>
       <c r="J17">
-        <v>0.1256638599709561</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>1.248907210059912</v>
+        <v>0.9170746847611042</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4429477989791195</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05001088752434413</v>
       </c>
       <c r="O17">
-        <v>2.370277726259985</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4757630156788153</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.207094562068022</v>
+        <v>3.773527029202569</v>
       </c>
       <c r="C18">
-        <v>0.1404072821131308</v>
+        <v>1.291111382096517</v>
       </c>
       <c r="D18">
-        <v>0.1777319350585032</v>
+        <v>0.05036532954311168</v>
       </c>
       <c r="E18">
-        <v>0.1248196878807555</v>
+        <v>0.1003346497764781</v>
       </c>
       <c r="F18">
-        <v>1.001676045460769</v>
+        <v>2.161724793572873</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07261538384057786</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001627488626276374</v>
       </c>
       <c r="J18">
-        <v>0.1240363680203487</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>1.217851227210531</v>
+        <v>1.123199806292504</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.431925301311928</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07825224261012664</v>
       </c>
       <c r="O18">
-        <v>2.358206394647283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5014104482559389</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.196538292469683</v>
+        <v>3.700940552623081</v>
       </c>
       <c r="C19">
-        <v>0.1394115872908372</v>
+        <v>1.230086452811634</v>
       </c>
       <c r="D19">
-        <v>0.1763431722313982</v>
+        <v>0.06053042160184141</v>
       </c>
       <c r="E19">
-        <v>0.1240445252236633</v>
+        <v>0.07724142122950362</v>
       </c>
       <c r="F19">
-        <v>0.9987949928441964</v>
+        <v>2.586280720726876</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02712280941987899</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001674166922515319</v>
       </c>
       <c r="J19">
-        <v>0.1234889794892808</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>1.207344256431981</v>
+        <v>1.425102344204561</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4281984147655749</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1325055784846612</v>
       </c>
       <c r="O19">
-        <v>2.354212692972794</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5472194887963227</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.244082170623727</v>
+        <v>3.789024455418144</v>
       </c>
       <c r="C20">
-        <v>0.1438937507676172</v>
+        <v>1.209038424620985</v>
       </c>
       <c r="D20">
-        <v>0.1826019951272997</v>
+        <v>0.08867471390507831</v>
       </c>
       <c r="E20">
-        <v>0.1275435151118742</v>
+        <v>0.06093427816894259</v>
       </c>
       <c r="F20">
-        <v>1.011900400754058</v>
+        <v>3.420986046342591</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0002128116530633051</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001632831789036615</v>
       </c>
       <c r="J20">
-        <v>0.1259668260179296</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>1.254658911593083</v>
+        <v>2.013065691943581</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.444990305985705</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2565060657859846</v>
       </c>
       <c r="O20">
-        <v>2.372556678561068</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6487082647625826</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.404585644831542</v>
+        <v>4.270775985438604</v>
       </c>
       <c r="C21">
-        <v>0.1589835470175984</v>
+        <v>1.367621202766827</v>
       </c>
       <c r="D21">
-        <v>0.203802424450231</v>
+        <v>0.09579879439829853</v>
       </c>
       <c r="E21">
-        <v>0.1394956699824732</v>
+        <v>0.06864364791069466</v>
       </c>
       <c r="F21">
-        <v>1.058490171528803</v>
+        <v>3.866101126528775</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0002793384888786221</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002943394241201602</v>
       </c>
       <c r="J21">
-        <v>0.1345578840209924</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>1.414259281997147</v>
+        <v>2.253337704371376</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.501796107015231</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2994218805949487</v>
       </c>
       <c r="O21">
-        <v>2.440959143592494</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7375001967329879</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.510142750541746</v>
+        <v>4.590894241661317</v>
       </c>
       <c r="C22">
-        <v>0.1688750671706174</v>
+        <v>1.473809520621444</v>
       </c>
       <c r="D22">
-        <v>0.217798701957733</v>
+        <v>0.09959619988275392</v>
       </c>
       <c r="E22">
-        <v>0.147464900401161</v>
+        <v>0.0744441165412697</v>
       </c>
       <c r="F22">
-        <v>1.090973251040438</v>
+        <v>4.141775415948587</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001099721661266262</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.004470955504138452</v>
       </c>
       <c r="J22">
-        <v>0.1403852054838524</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>1.519122189961706</v>
+        <v>2.398108709600137</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5392471330533226</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3210268325567256</v>
       </c>
       <c r="O22">
-        <v>2.491039410983234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7919867072046429</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.453738623799325</v>
+        <v>4.420126720210703</v>
       </c>
       <c r="C23">
-        <v>0.1635926217285828</v>
+        <v>1.414269907908306</v>
       </c>
       <c r="D23">
-        <v>0.2103149217568472</v>
+        <v>0.09839453780940488</v>
       </c>
       <c r="E23">
-        <v>0.1431963542266317</v>
+        <v>0.07134352447092507</v>
       </c>
       <c r="F23">
-        <v>1.073441794855611</v>
+        <v>4.012236567256167</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0006020423316601686</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003288521976896774</v>
       </c>
       <c r="J23">
-        <v>0.1372546429439438</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>1.463098403566448</v>
+        <v>2.334686409344712</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5192266346083372</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3093668281545376</v>
       </c>
       <c r="O23">
-        <v>2.463796797442853</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7627945218367103</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.241468640920402</v>
+        <v>3.777593852050074</v>
       </c>
       <c r="C24">
-        <v>0.1436475143377152</v>
+        <v>1.197377234977012</v>
       </c>
       <c r="D24">
-        <v>0.1822576758174108</v>
+        <v>0.09240675301281698</v>
       </c>
       <c r="E24">
-        <v>0.127350658593766</v>
+        <v>0.06008009148197768</v>
       </c>
       <c r="F24">
-        <v>1.011171407347675</v>
+        <v>3.499216742880378</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.600767798798813E-05</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001153799760749585</v>
       </c>
       <c r="J24">
-        <v>0.1258297898991856</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>1.252058457729731</v>
+        <v>2.074328220574216</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4440668077285963</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2658941467229852</v>
       </c>
       <c r="O24">
-        <v>2.371524658651822</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6531327549081993</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.014758181488759</v>
+        <v>3.092424461955204</v>
       </c>
       <c r="C25">
-        <v>0.1222168350004864</v>
+        <v>0.9706550528800619</v>
       </c>
       <c r="D25">
-        <v>0.152516918456385</v>
+        <v>0.0857660566322096</v>
       </c>
       <c r="E25">
-        <v>0.1108620130311451</v>
+        <v>0.04879144755858267</v>
       </c>
       <c r="F25">
-        <v>0.9519272197859863</v>
+        <v>2.958075334096861</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.00207211027347487</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.002444969446136369</v>
       </c>
       <c r="J25">
-        <v>0.1143276302005205</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>1.026259537965501</v>
+        <v>1.798284408492123</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3641604232539848</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2198593976009278</v>
       </c>
       <c r="O25">
-        <v>2.292987615649167</v>
+        <v>0.5361372291385038</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.593027982814874</v>
+        <v>2.598272906882016</v>
       </c>
       <c r="C2">
-        <v>0.8019061299573025</v>
+        <v>0.9285018443314641</v>
       </c>
       <c r="D2">
-        <v>0.08267088034563486</v>
+        <v>0.04983646343467729</v>
       </c>
       <c r="E2">
-        <v>0.0410280546109556</v>
+        <v>0.04395906174422137</v>
       </c>
       <c r="F2">
-        <v>2.609726796147811</v>
+        <v>1.833560636657865</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.005360080642507481</v>
+        <v>0.003938978993443309</v>
       </c>
       <c r="I2">
-        <v>0.005186424454514338</v>
+        <v>0.003349494460857194</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>1.630973226698501</v>
+        <v>1.028384885145996</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4318851392937404</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.342488849065802</v>
       </c>
       <c r="N2">
-        <v>0.1862086577766533</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4505404824143966</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2000579712469062</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.456165985198048</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.2561763745843</v>
+        <v>2.261239834313415</v>
       </c>
       <c r="C3">
-        <v>0.6933687113094607</v>
+        <v>0.8001075241005253</v>
       </c>
       <c r="D3">
-        <v>0.07930503640134035</v>
+        <v>0.04980912367743606</v>
       </c>
       <c r="E3">
-        <v>0.03597906089255964</v>
+        <v>0.0389496840615422</v>
       </c>
       <c r="F3">
-        <v>2.352180669708588</v>
+        <v>1.682189210099111</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.008619748280234735</v>
+        <v>0.006460938373776037</v>
       </c>
       <c r="I3">
-        <v>0.008833279715910525</v>
+        <v>0.005815900921927408</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>1.499222297247613</v>
+        <v>0.9748239961337291</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.4206876288420602</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.3144777025335443</v>
       </c>
       <c r="N3">
-        <v>0.1637605955238612</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3929549422681049</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1771140325405796</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3977911652688633</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.050008251733232</v>
+        <v>2.054564353419607</v>
       </c>
       <c r="C4">
-        <v>0.6276722718923224</v>
+        <v>0.7223063481607142</v>
       </c>
       <c r="D4">
-        <v>0.07713967076362849</v>
+        <v>0.04973535427794928</v>
       </c>
       <c r="E4">
-        <v>0.03296435362483052</v>
+        <v>0.0359374399534973</v>
       </c>
       <c r="F4">
-        <v>2.194524506580379</v>
+        <v>1.589328383566411</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.01107738875110875</v>
+        <v>0.008377736899106175</v>
       </c>
       <c r="I4">
-        <v>0.01170329005619619</v>
+        <v>0.007815431130802519</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>1.418029490276552</v>
+        <v>0.9415227008866438</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.4132157649177941</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.298137398256344</v>
       </c>
       <c r="N4">
-        <v>0.150053603377529</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3577069991611381</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1630796854755729</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3620193735152526</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.966088379367477</v>
+        <v>1.970347107127736</v>
       </c>
       <c r="C5">
-        <v>0.60176487672544</v>
+        <v>0.6914233141427815</v>
       </c>
       <c r="D5">
-        <v>0.07602674694373235</v>
+        <v>0.04961506496874346</v>
       </c>
       <c r="E5">
-        <v>0.03175162182540348</v>
+        <v>0.03472476901271371</v>
       </c>
       <c r="F5">
-        <v>2.125960138643066</v>
+        <v>1.548484055740616</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.01219617840911519</v>
+        <v>0.009253091794027724</v>
       </c>
       <c r="I5">
-        <v>0.01311525688287674</v>
+        <v>0.008846187664340199</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>1.381408800347728</v>
+        <v>0.925683798765327</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.4091272948947378</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2909663666893323</v>
       </c>
       <c r="N5">
-        <v>0.1445094088368606</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3433871654503236</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1573910207026472</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3474730425438963</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.952119058519827</v>
+        <v>1.956322534891285</v>
       </c>
       <c r="C6">
-        <v>0.598280010655202</v>
+        <v>0.6870331908179139</v>
       </c>
       <c r="D6">
-        <v>0.07559009712491616</v>
+        <v>0.04950223076386884</v>
       </c>
       <c r="E6">
-        <v>0.03154907259339534</v>
+        <v>0.03452659010688919</v>
       </c>
       <c r="F6">
-        <v>2.109210822068931</v>
+        <v>1.538042820103286</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.01239917559176235</v>
+        <v>0.009411611601388828</v>
       </c>
       <c r="I6">
-        <v>0.01347926949082368</v>
+        <v>0.009155920138772089</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>1.371121713123785</v>
+        <v>0.9204167381570869</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.4073510406123333</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2889072020058876</v>
       </c>
       <c r="N6">
-        <v>0.1436223328071762</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3410382162255416</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1564720186125896</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.345080678849726</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.048754536827346</v>
+        <v>2.053307839122056</v>
       </c>
       <c r="C7">
-        <v>0.629524797899137</v>
+        <v>0.7238741240896331</v>
       </c>
       <c r="D7">
-        <v>0.07643864346197304</v>
+        <v>0.04948597315158754</v>
       </c>
       <c r="E7">
-        <v>0.03294154331722332</v>
+        <v>0.03592784978676633</v>
       </c>
       <c r="F7">
-        <v>2.178899539822623</v>
+        <v>1.57879234974709</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.01111959291962349</v>
+        <v>0.008409402106710928</v>
       </c>
       <c r="I7">
-        <v>0.01203091739847828</v>
+        <v>0.008166645352852164</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>1.406032639781614</v>
+        <v>0.9341405445491731</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.410231420961793</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2956013345524511</v>
       </c>
       <c r="N7">
-        <v>0.1500683181821429</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3575888685688398</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1630718528787511</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3618838352425371</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.476519656053824</v>
+        <v>2.481804590634567</v>
       </c>
       <c r="C8">
-        <v>0.7671976545809969</v>
+        <v>0.8866490504902345</v>
       </c>
       <c r="D8">
-        <v>0.080618016289705</v>
+        <v>0.04952908396211519</v>
       </c>
       <c r="E8">
-        <v>0.03925600046090505</v>
+        <v>0.04222566846187625</v>
       </c>
       <c r="F8">
-        <v>2.501196152131598</v>
+        <v>1.768154420359906</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006412280856728736</v>
+        <v>0.004748298139810703</v>
       </c>
       <c r="I8">
-        <v>0.006662904590363006</v>
+        <v>0.004490205965129057</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>1.570264965829878</v>
+        <v>1.00058876698197</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4244525867873676</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.3292931410154694</v>
       </c>
       <c r="N8">
-        <v>0.1785687144720001</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4307543137393282</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1922266734721703</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4360981670083177</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.322744614341048</v>
+        <v>3.325829631910779</v>
       </c>
       <c r="C9">
-        <v>1.042205308664677</v>
+        <v>1.211912499871744</v>
       </c>
       <c r="D9">
-        <v>0.08927045852339432</v>
+        <v>0.04956694789569926</v>
       </c>
       <c r="E9">
-        <v>0.05252114347470105</v>
+        <v>0.05521858574153349</v>
       </c>
       <c r="F9">
-        <v>3.165888198611242</v>
+        <v>2.159417274750652</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.001073778397750136</v>
+        <v>0.0007049564078898118</v>
       </c>
       <c r="I9">
-        <v>0.001139322389030362</v>
+        <v>0.0009574948839068398</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>1.911754847372194</v>
+        <v>1.140771341044797</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4525879870969618</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.4071383279330973</v>
       </c>
       <c r="N9">
-        <v>0.23511330491705</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5752863210157884</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.249860250108739</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5823425552497099</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.956570566382652</v>
+        <v>3.955444563110291</v>
       </c>
       <c r="C10">
-        <v>1.259437874409457</v>
+        <v>1.464021939670715</v>
       </c>
       <c r="D10">
-        <v>0.09145491961380259</v>
+        <v>0.04834930265160065</v>
       </c>
       <c r="E10">
-        <v>0.0640285114749668</v>
+        <v>0.06679662376279794</v>
       </c>
       <c r="F10">
-        <v>3.579911398434064</v>
+        <v>2.400877416074621</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0001885675814374821</v>
+        <v>0.0001905905932573226</v>
       </c>
       <c r="I10">
-        <v>0.001157242804920244</v>
+        <v>0.001505135247561462</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>2.101500747126323</v>
+        <v>1.209236680303164</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4585475944554247</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.4560548963670783</v>
       </c>
       <c r="N10">
-        <v>0.2645632092432066</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6751130169794024</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2794170304618007</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6829789421820109</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.291892578773457</v>
+        <v>4.290886733932041</v>
       </c>
       <c r="C11">
-        <v>1.421771899407361</v>
+        <v>1.62085152080715</v>
       </c>
       <c r="D11">
-        <v>0.06727723718237755</v>
+        <v>0.04320525604201109</v>
       </c>
       <c r="E11">
-        <v>0.08399823749288515</v>
+        <v>0.09022658483160839</v>
       </c>
       <c r="F11">
-        <v>3.125771674881378</v>
+        <v>2.121600494761481</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01875422125114667</v>
+        <v>0.01876902808378134</v>
       </c>
       <c r="I11">
-        <v>0.002084198402178217</v>
+        <v>0.002597786985688799</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.710800401173216</v>
+        <v>0.9842733101572847</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3711394363279865</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3767445564205048</v>
       </c>
       <c r="N11">
-        <v>0.1782867443446108</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6552367074249332</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1892861139786604</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6622823694554043</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.443156895502966</v>
+        <v>4.443238377217995</v>
       </c>
       <c r="C12">
-        <v>1.512384672109818</v>
+        <v>1.697946050579617</v>
       </c>
       <c r="D12">
-        <v>0.05387810103143842</v>
+        <v>0.04323957416807644</v>
       </c>
       <c r="E12">
-        <v>0.1067508709206315</v>
+        <v>0.1152241530261939</v>
       </c>
       <c r="F12">
-        <v>2.705101803889477</v>
+        <v>1.86399133759096</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05741919377877025</v>
+        <v>0.05742701138908757</v>
       </c>
       <c r="I12">
-        <v>0.002147491241174748</v>
+        <v>0.002699618316613694</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.392955865590039</v>
+        <v>0.8091567282941341</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.30771899220953</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3096011938262819</v>
       </c>
       <c r="N12">
-        <v>0.1161307224180916</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.6174700206736574</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1242404470149552</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6236996843640057</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.459485659477878</v>
+        <v>4.461508889433389</v>
       </c>
       <c r="C13">
-        <v>1.555249885374167</v>
+        <v>1.720042803316005</v>
       </c>
       <c r="D13">
-        <v>0.04685901167018214</v>
+        <v>0.04666404638924604</v>
       </c>
       <c r="E13">
-        <v>0.132503629941958</v>
+        <v>0.1423843561424647</v>
       </c>
       <c r="F13">
-        <v>2.264146054154097</v>
+        <v>1.592468653070654</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1131796058147074</v>
+        <v>0.1131499509486105</v>
       </c>
       <c r="I13">
-        <v>0.001837553982144691</v>
+        <v>0.002398032800524419</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>1.095761784792884</v>
+        <v>0.6507695843479127</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2536228834237377</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2446247109388509</v>
       </c>
       <c r="N13">
-        <v>0.06940755299319079</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5642200948572764</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.07517053324567513</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5695568558587354</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.409863763219789</v>
+        <v>4.413522109931989</v>
       </c>
       <c r="C14">
-        <v>1.564558338068707</v>
+        <v>1.711315090285723</v>
       </c>
       <c r="D14">
-        <v>0.04561808215581742</v>
+        <v>0.05099551087119636</v>
       </c>
       <c r="E14">
-        <v>0.152778898414013</v>
+        <v>0.1631412316850529</v>
       </c>
       <c r="F14">
-        <v>1.949437458437345</v>
+        <v>1.396925649670607</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1625932260297702</v>
+        <v>0.1625090939423899</v>
       </c>
       <c r="I14">
-        <v>0.001617332807694716</v>
+        <v>0.002155493198358727</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.9010003503174246</v>
+        <v>0.548890895350965</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2199193361931329</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2012721852445765</v>
       </c>
       <c r="N14">
-        <v>0.04626805826307745</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5204438919400189</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.0506879263250859</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5251091223940563</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.368575858932331</v>
+        <v>4.372792170720004</v>
       </c>
       <c r="C15">
-        <v>1.557142500520683</v>
+        <v>1.698090229484819</v>
       </c>
       <c r="D15">
-        <v>0.04586056748725298</v>
+        <v>0.05233376642513932</v>
       </c>
       <c r="E15">
-        <v>0.157253945520079</v>
+        <v>0.1676206184869002</v>
       </c>
       <c r="F15">
-        <v>1.861631128795125</v>
+        <v>1.342009841870052</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1751519085758702</v>
+        <v>0.1750375764228096</v>
       </c>
       <c r="I15">
-        <v>0.001641434582779766</v>
+        <v>0.002174630508789299</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.8514034325920576</v>
+        <v>0.5237453812058632</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2119740593960628</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1899895681142674</v>
       </c>
       <c r="N15">
-        <v>0.04177287146758957</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5065956571251391</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.04593443263235741</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5110713010144892</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.08939358949516</v>
+        <v>4.095047684120516</v>
       </c>
       <c r="C16">
-        <v>1.453195919602365</v>
+        <v>1.583426909091202</v>
       </c>
       <c r="D16">
-        <v>0.0463908920176479</v>
+        <v>0.05154329609403163</v>
       </c>
       <c r="E16">
-        <v>0.146082759760926</v>
+        <v>0.1559331477750661</v>
       </c>
       <c r="F16">
-        <v>1.776436346660233</v>
+        <v>1.290889248398571</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1628137627298258</v>
+        <v>0.162515649952951</v>
       </c>
       <c r="I16">
-        <v>0.00159861366051306</v>
+        <v>0.001936469975194477</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.8328839519595093</v>
+        <v>0.5237146372187311</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2157576349419408</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1842808045563018</v>
       </c>
       <c r="N16">
-        <v>0.04051972269831694</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4761619825928491</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.04509546069879633</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4804394955099482</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.902436359431078</v>
+        <v>3.908306616116988</v>
       </c>
       <c r="C17">
-        <v>1.369087123020392</v>
+        <v>1.500806813356746</v>
       </c>
       <c r="D17">
-        <v>0.04680846223048896</v>
+        <v>0.04842204069284506</v>
       </c>
       <c r="E17">
-        <v>0.1262267189378292</v>
+        <v>0.135524455761189</v>
       </c>
       <c r="F17">
-        <v>1.873268607138868</v>
+        <v>1.35358601402308</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1253629348266827</v>
+        <v>0.1249461506831011</v>
       </c>
       <c r="I17">
-        <v>0.001786710227706934</v>
+        <v>0.001980336352768397</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>0.9170746847611042</v>
+        <v>0.5758870066182311</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2366526272141023</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2015025146355462</v>
       </c>
       <c r="N17">
-        <v>0.05001088752434413</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4757630156788153</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.05557976714823809</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4802473906797431</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.773527029202569</v>
+        <v>3.778739645259577</v>
       </c>
       <c r="C18">
-        <v>1.291111382096517</v>
+        <v>1.434467201060841</v>
       </c>
       <c r="D18">
-        <v>0.05036532954311168</v>
+        <v>0.04463589788960576</v>
       </c>
       <c r="E18">
-        <v>0.1003346497764781</v>
+        <v>0.1086920888531466</v>
       </c>
       <c r="F18">
-        <v>2.161724793572873</v>
+        <v>1.535561129534656</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07261538384057786</v>
+        <v>0.07218337539269015</v>
       </c>
       <c r="I18">
-        <v>0.001627488626276374</v>
+        <v>0.001730235310544614</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>1.123199806292504</v>
+        <v>0.6924722767092106</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2801149382938988</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.244949106766569</v>
       </c>
       <c r="N18">
-        <v>0.07825224261012664</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5014104482559389</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.08564401726566473</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5065158801121967</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.700940552623081</v>
+        <v>3.704846363247441</v>
       </c>
       <c r="C19">
-        <v>1.230086452811634</v>
+        <v>1.390748629534357</v>
       </c>
       <c r="D19">
-        <v>0.06053042160184141</v>
+        <v>0.04340661058820494</v>
       </c>
       <c r="E19">
-        <v>0.07724142122950362</v>
+        <v>0.08389671876908267</v>
       </c>
       <c r="F19">
-        <v>2.586280720726876</v>
+        <v>1.798225951817471</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02712280941987899</v>
+        <v>0.02678503507647889</v>
       </c>
       <c r="I19">
-        <v>0.001674166922515319</v>
+        <v>0.001860446910547431</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>1.425102344204561</v>
+        <v>0.8579294614374291</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3405785186284973</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3084247639364648</v>
       </c>
       <c r="N19">
-        <v>0.1325055784846612</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5472194887963227</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1425419811704387</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5532275642532767</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.789024455418144</v>
+        <v>3.789360569930523</v>
       </c>
       <c r="C20">
-        <v>1.209038424620985</v>
+        <v>1.403717306319265</v>
       </c>
       <c r="D20">
-        <v>0.08867471390507831</v>
+        <v>0.04804877410932651</v>
       </c>
       <c r="E20">
-        <v>0.06093427816894259</v>
+        <v>0.06377357392971028</v>
       </c>
       <c r="F20">
-        <v>3.420986046342591</v>
+        <v>2.304611256795653</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0002128116530633051</v>
+        <v>0.000153698499550714</v>
       </c>
       <c r="I20">
-        <v>0.001632831789036615</v>
+        <v>0.002064936842129939</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823846983</v>
       </c>
       <c r="K20">
-        <v>2.013065691943581</v>
+        <v>1.16849055514443</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4488822062347211</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.4340237745613891</v>
       </c>
       <c r="N20">
-        <v>0.2565060657859846</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6487082647625826</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2712772063774622</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6563416837412603</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.270775985438604</v>
+        <v>4.266269942564918</v>
       </c>
       <c r="C21">
-        <v>1.367621202766827</v>
+        <v>1.592813026056604</v>
       </c>
       <c r="D21">
-        <v>0.09579879439829853</v>
+        <v>0.04848996806330064</v>
       </c>
       <c r="E21">
-        <v>0.06864364791069466</v>
+        <v>0.07076185963177473</v>
       </c>
       <c r="F21">
-        <v>3.866101126528775</v>
+        <v>2.567237898435934</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.0002793384888786221</v>
+        <v>0.0003096261608313</v>
       </c>
       <c r="I21">
-        <v>0.002943394241201602</v>
+        <v>0.003401055328573932</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>2.253337704371376</v>
+        <v>1.272116273067084</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4711804896182628</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.4931473438546305</v>
       </c>
       <c r="N21">
-        <v>0.2994218805949487</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7375001967329879</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3149333177712208</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7458373887746248</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.590894241661317</v>
+        <v>4.582501454532803</v>
       </c>
       <c r="C22">
-        <v>1.473809520621444</v>
+        <v>1.718048958741974</v>
       </c>
       <c r="D22">
-        <v>0.09959619988275392</v>
+        <v>0.04854224362524473</v>
       </c>
       <c r="E22">
-        <v>0.0744441165412697</v>
+        <v>0.07622860972243473</v>
       </c>
       <c r="F22">
-        <v>4.141775415948587</v>
+        <v>2.730466970118869</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.001099721661266262</v>
+        <v>0.001036683585898368</v>
       </c>
       <c r="I22">
-        <v>0.004470955504138452</v>
+        <v>0.004629810727415418</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>2.398108709600137</v>
+        <v>1.333649455084327</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4829037615067762</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.5305697726133687</v>
       </c>
       <c r="N22">
-        <v>0.3210268325567256</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7919867072046429</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3367332133263687</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.8006412435426711</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.420126720210703</v>
+        <v>4.413824522105756</v>
       </c>
       <c r="C23">
-        <v>1.414269907908306</v>
+        <v>1.648572393684105</v>
       </c>
       <c r="D23">
-        <v>0.09839453780940488</v>
+        <v>0.04874486048483728</v>
       </c>
       <c r="E23">
-        <v>0.07134352447092507</v>
+        <v>0.07328582572260878</v>
       </c>
       <c r="F23">
-        <v>4.012236567256167</v>
+        <v>2.654850260477644</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.0006020423316601686</v>
+        <v>0.0006017412835856994</v>
       </c>
       <c r="I23">
-        <v>0.003288521976896774</v>
+        <v>0.00356494731651491</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>2.334686409344712</v>
+        <v>1.308964165460765</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4795472520267765</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.5137675610065031</v>
       </c>
       <c r="N23">
-        <v>0.3093668281545376</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7627945218367103</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.324993320638157</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7713018762473851</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.777593852050074</v>
+        <v>3.777702348353557</v>
       </c>
       <c r="C24">
-        <v>1.197377234977012</v>
+        <v>1.393738003615795</v>
       </c>
       <c r="D24">
-        <v>0.09240675301281698</v>
+        <v>0.04905824095325073</v>
       </c>
       <c r="E24">
-        <v>0.06008009148197768</v>
+        <v>0.06254602504957418</v>
       </c>
       <c r="F24">
-        <v>3.499216742880378</v>
+        <v>2.353393114006579</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.600767798798813E-05</v>
+        <v>2.568580560158296E-05</v>
       </c>
       <c r="I24">
-        <v>0.001153799760749585</v>
+        <v>0.001489077188412402</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555349711</v>
       </c>
       <c r="K24">
-        <v>2.074328220574216</v>
+        <v>1.203050832246717</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4615560435284891</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.4472422024459775</v>
       </c>
       <c r="N24">
-        <v>0.2658941467229852</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6531327549081993</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2810594951501315</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6608801628139531</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.092424461955204</v>
+        <v>3.096607333176905</v>
       </c>
       <c r="C25">
-        <v>0.9706550528800619</v>
+        <v>1.126331241130288</v>
       </c>
       <c r="D25">
-        <v>0.0857660566322096</v>
+        <v>0.04921850517955662</v>
       </c>
       <c r="E25">
-        <v>0.04879144755858267</v>
+        <v>0.05162282479632907</v>
       </c>
       <c r="F25">
-        <v>2.958075334096861</v>
+        <v>2.035199352643204</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.00207211027347487</v>
+        <v>0.001438981224427538</v>
       </c>
       <c r="I25">
-        <v>0.002444969446136369</v>
+        <v>0.001950745345919103</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.0759519602266292</v>
       </c>
       <c r="K25">
-        <v>1.798284408492123</v>
+        <v>1.090381553402189</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4407183284327729</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3804826355378097</v>
       </c>
       <c r="N25">
-        <v>0.2198593976009278</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5361372291385038</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.234310994355738</v>
       </c>
       <c r="Q25">
+        <v>0.5427547307187837</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
